--- a/outputs_HGR/test-c__Bacilli.xlsx
+++ b/outputs_HGR/test-c__Bacilli.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="473">
   <si>
     <t>Row</t>
   </si>
@@ -61,9 +61,6 @@
     <t>even_MAG-GUT1103.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT11046.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT1160.fa</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>even_MAG-GUT1541.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT15497.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT15546.fa</t>
   </si>
   <si>
@@ -226,9 +220,6 @@
     <t>even_MAG-GUT1578.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT17288.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT17314.fa</t>
   </si>
   <si>
@@ -238,9 +229,6 @@
     <t>even_MAG-GUT17776.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT17782.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT1871.fa</t>
   </si>
   <si>
@@ -307,6 +295,9 @@
     <t>even_MAG-GUT2025.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT21728.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT2256.fa</t>
   </si>
   <si>
@@ -316,7 +307,7 @@
     <t>even_MAG-GUT2306.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT23295.fa</t>
+    <t>even_MAG-GUT2366.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT26238.fa</t>
@@ -325,9 +316,6 @@
     <t>even_MAG-GUT26973.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT27420.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT27437.fa</t>
   </si>
   <si>
@@ -337,9 +325,6 @@
     <t>even_MAG-GUT28570.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT30098.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT30639.fa</t>
   </si>
   <si>
@@ -358,21 +343,9 @@
     <t>even_MAG-GUT32654.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT33095.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT33356.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT33836.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT34245.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT34540.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT3474.fa</t>
   </si>
   <si>
@@ -391,9 +364,6 @@
     <t>even_MAG-GUT3493.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT34945.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT3499.fa</t>
   </si>
   <si>
@@ -409,18 +379,9 @@
     <t>even_MAG-GUT36009.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT38547.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT38625.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT41.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT41148.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT42689.fa</t>
   </si>
   <si>
@@ -463,6 +424,9 @@
     <t>even_MAG-GUT43751.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT43773.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT43936.fa</t>
   </si>
   <si>
@@ -475,18 +439,12 @@
     <t>even_MAG-GUT44104.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT44112.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT44177.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT44179.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT44433.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT44539.fa</t>
   </si>
   <si>
@@ -499,9 +457,6 @@
     <t>even_MAG-GUT44666.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT45166.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT45687.fa</t>
   </si>
   <si>
@@ -511,9 +466,6 @@
     <t>even_MAG-GUT46265.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT46397.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT46437.fa</t>
   </si>
   <si>
@@ -523,12 +475,6 @@
     <t>even_MAG-GUT46496.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT46649.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT46722.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT46868.fa</t>
   </si>
   <si>
@@ -622,9 +568,6 @@
     <t>even_MAG-GUT48894.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT48926.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT48940.fa</t>
   </si>
   <si>
@@ -646,15 +589,9 @@
     <t>even_MAG-GUT49005.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT49010.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT49015.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT49023.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT49051.fa</t>
   </si>
   <si>
@@ -673,18 +610,12 @@
     <t>even_MAG-GUT49075.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT49076.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT49083.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT49101.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT49107.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT49118.fa</t>
   </si>
   <si>
@@ -727,9 +658,6 @@
     <t>even_MAG-GUT49359.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT49379.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT49384.fa</t>
   </si>
   <si>
@@ -769,9 +697,6 @@
     <t>even_MAG-GUT49541.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT49542.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT49567.fa</t>
   </si>
   <si>
@@ -793,15 +718,9 @@
     <t>even_MAG-GUT51.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT56425.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT57264.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT57416.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT57442.fa</t>
   </si>
   <si>
@@ -892,9 +811,6 @@
     <t>even_MAG-GUT7062.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT70664.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT7086.fa</t>
   </si>
   <si>
@@ -916,6 +832,9 @@
     <t>even_MAG-GUT7175.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT71751.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT7213.fa</t>
   </si>
   <si>
@@ -940,6 +859,9 @@
     <t>even_MAG-GUT73847.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT74183.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT76426.fa</t>
   </si>
   <si>
@@ -949,12 +871,12 @@
     <t>even_MAG-GUT76530.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT77471.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT77576.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT79662.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT80232.fa</t>
   </si>
   <si>
@@ -967,9 +889,6 @@
     <t>even_MAG-GUT83507.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT83643.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT86747.fa</t>
   </si>
   <si>
@@ -1402,9 +1321,6 @@
     <t>even_MAG-GUT91705.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT91712.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT91717.fa</t>
   </si>
   <si>
@@ -1502,9 +1418,6 @@
   </si>
   <si>
     <t>even_MAG-GUT945.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT9688.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT9692.fa</t>
@@ -1567,7 +1480,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D499"/>
+  <dimension ref="A1:D470"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -1581,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>501</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2">
@@ -1595,10 +1508,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0017346519883669753</v>
+        <v>6.3929690975461648e-06</v>
       </c>
       <c r="C2">
-        <v>0.99826534801163302</v>
+        <v>0.99999360703090245</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1609,10 +1522,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.00011218810807245294</v>
+        <v>2.1327348769251131e-06</v>
       </c>
       <c r="C3">
-        <v>0.99988781189192755</v>
+        <v>0.99999786726512307</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1623,10 +1536,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.00041835440075410624</v>
+        <v>2.2527905525815406e-05</v>
       </c>
       <c r="C4">
-        <v>0.99958164559924589</v>
+        <v>0.99997747209447418</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1637,10 +1550,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.0003130247687919141</v>
+        <v>1.4115565488248549e-05</v>
       </c>
       <c r="C5">
-        <v>0.99968697523120809</v>
+        <v>0.99998588443451175</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1651,10 +1564,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.0003130247687919141</v>
+        <v>1.4115565488248549e-05</v>
       </c>
       <c r="C6">
-        <v>0.99968697523120809</v>
+        <v>0.99998588443451175</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1665,10 +1578,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.3560501957176072e-06</v>
+        <v>1.3982021540570599e-08</v>
       </c>
       <c r="C7">
-        <v>0.99999764394980428</v>
+        <v>0.99999998601797846</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1679,10 +1592,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.00023223036059438762</v>
+        <v>1.0717220425005003e-05</v>
       </c>
       <c r="C8">
-        <v>0.99976776963940561</v>
+        <v>0.99998928277957499</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1693,10 +1606,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.9817519550713314e-05</v>
+        <v>1.92441513169328e-07</v>
       </c>
       <c r="C9">
-        <v>0.99998018248044929</v>
+        <v>0.99999980755848683</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1707,10 +1620,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.00012174365381523167</v>
+        <v>1.1590373631964468e-06</v>
       </c>
       <c r="C10">
-        <v>0.99987825634618477</v>
+        <v>0.9999988409626368</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1721,13 +1634,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.34511481062270299</v>
+        <v>0.98215307400472407</v>
       </c>
       <c r="C11">
-        <v>0.65488518937729701</v>
+        <v>0.017846925995275837</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1735,10 +1648,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4.387875840450306e-09</v>
+        <v>6.5785155101139026e-12</v>
       </c>
       <c r="C12">
-        <v>0.99999999561212416</v>
+        <v>0.99999999999342148</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1749,10 +1662,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>5.8997706386954007e-08</v>
+        <v>1.560138684908452e-10</v>
       </c>
       <c r="C13">
-        <v>0.99999994100229361</v>
+        <v>0.99999999984398613</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1763,10 +1676,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.002562418300514846</v>
+        <v>0.00012470267667008539</v>
       </c>
       <c r="C14">
-        <v>0.99743758169948515</v>
+        <v>0.99987529732332991</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1777,10 +1690,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>9.1472393289881992e-06</v>
+        <v>1.0359866176035126e-07</v>
       </c>
       <c r="C15">
-        <v>0.99999085276067101</v>
+        <v>0.99999989640133824</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1791,10 +1704,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.00010829563495418082</v>
+        <v>2.8578268620460534e-06</v>
       </c>
       <c r="C16">
-        <v>0.99989170436504582</v>
+        <v>0.99999714217313795</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1805,10 +1718,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>9.2894435806734066e-05</v>
+        <v>2.1024946561531974e-07</v>
       </c>
       <c r="C17">
-        <v>0.99990710556419327</v>
+        <v>0.99999978975053438</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1819,10 +1732,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2.0517820126797481e-05</v>
+        <v>1.3664500198018459e-08</v>
       </c>
       <c r="C18">
-        <v>0.9999794821798732</v>
+        <v>0.9999999863354998</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1833,10 +1746,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1.731611691591084e-06</v>
+        <v>2.7500397826729639e-06</v>
       </c>
       <c r="C19">
-        <v>0.99999826838830841</v>
+        <v>0.99999724996021733</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1847,10 +1760,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.000118089826905865</v>
+        <v>6.2779494180986717e-07</v>
       </c>
       <c r="C20">
-        <v>0.99988191017309413</v>
+        <v>0.99999937220505819</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1861,13 +1774,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>5.2593760305863491e-05</v>
+        <v>0.96670365736533126</v>
       </c>
       <c r="C21">
-        <v>0.99994740623969414</v>
+        <v>0.033296342634668741</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1875,10 +1788,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.10609535701800654</v>
+        <v>1.4530823211345023e-08</v>
       </c>
       <c r="C22">
-        <v>0.89390464298199346</v>
+        <v>0.99999998546917679</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1889,10 +1802,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>3.2844525469366559e-06</v>
+        <v>2.010618158632127e-07</v>
       </c>
       <c r="C23">
-        <v>0.99999671554745306</v>
+        <v>0.99999979893818414</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1903,13 +1816,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.2814203615651998e-05</v>
+        <v>0.93720079176802895</v>
       </c>
       <c r="C24">
-        <v>0.99998718579638435</v>
+        <v>0.062799208231970993</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1917,10 +1830,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.13581094791728487</v>
+        <v>2.010618158632127e-07</v>
       </c>
       <c r="C25">
-        <v>0.86418905208271513</v>
+        <v>0.99999979893818414</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1931,10 +1844,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.2814203615651998e-05</v>
+        <v>8.9189250151999744e-07</v>
       </c>
       <c r="C26">
-        <v>0.99998718579638435</v>
+        <v>0.99999910810749848</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1945,13 +1858,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2.9302976098710687e-05</v>
+        <v>0.98390660286640286</v>
       </c>
       <c r="C27">
-        <v>0.99997069702390129</v>
+        <v>0.016093397133597153</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1959,10 +1872,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.14955597026691769</v>
+        <v>9.8552690253050912e-07</v>
       </c>
       <c r="C28">
-        <v>0.85044402973308231</v>
+        <v>0.99999901447309747</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1973,10 +1886,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>4.2904571910584721e-05</v>
+        <v>8.677810617863102e-07</v>
       </c>
       <c r="C29">
-        <v>0.99995709542808942</v>
+        <v>0.99999913221893821</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1987,10 +1900,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>6.36716462607545e-05</v>
+        <v>1.7160342036248721e-09</v>
       </c>
       <c r="C30">
-        <v>0.99993632835373925</v>
+        <v>0.9999999982839658</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2001,13 +1914,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2.136189468648908e-07</v>
+        <v>0.99912879048447356</v>
       </c>
       <c r="C31">
-        <v>0.99999978638105314</v>
+        <v>0.00087120951552647932</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2015,13 +1928,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.72440241721880694</v>
+        <v>8.8175911017174258e-11</v>
       </c>
       <c r="C32">
-        <v>0.27559758278119306</v>
+        <v>0.99999999991182409</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -2029,10 +1942,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>4.7369839384359125e-08</v>
+        <v>8.677810617863102e-07</v>
       </c>
       <c r="C33">
-        <v>0.99999995263016062</v>
+        <v>0.99999913221893821</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2043,10 +1956,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>6.36716462607545e-05</v>
+        <v>8.0702555749212479e-11</v>
       </c>
       <c r="C34">
-        <v>0.99993632835373925</v>
+        <v>0.99999999991929744</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2057,10 +1970,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2.3745555854937092e-08</v>
+        <v>7.801606263235783e-07</v>
       </c>
       <c r="C35">
-        <v>0.99999997625444415</v>
+        <v>0.99999921983937368</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2071,10 +1984,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>4.3257507182037358e-05</v>
+        <v>7.1403052359642061e-09</v>
       </c>
       <c r="C36">
-        <v>0.99995674249281796</v>
+        <v>0.99999999285969476</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2085,10 +1998,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>8.3781100124191699e-07</v>
+        <v>6.738956503937743e-09</v>
       </c>
       <c r="C37">
-        <v>0.99999916218899876</v>
+        <v>0.9999999932610435</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2099,10 +2012,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>8.4013117163106443e-07</v>
+        <v>3.9850931443652371e-09</v>
       </c>
       <c r="C38">
-        <v>0.99999915986882837</v>
+        <v>0.99999999601490686</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -2113,10 +2026,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2.6250755624790401e-07</v>
+        <v>1.4946316406749816e-08</v>
       </c>
       <c r="C39">
-        <v>0.99999973749244375</v>
+        <v>0.99999998505368359</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2127,10 +2040,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1.1386762074350187e-06</v>
+        <v>3.7635361493926212e-10</v>
       </c>
       <c r="C40">
-        <v>0.99999886132379256</v>
+        <v>0.99999999962364639</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -2141,10 +2054,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1.4287470917473399e-07</v>
+        <v>3.7203238256733329e-07</v>
       </c>
       <c r="C41">
-        <v>0.99999985712529083</v>
+        <v>0.99999962796761743</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -2155,10 +2068,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1.2258337336534808e-05</v>
+        <v>5.7188023446785871e-06</v>
       </c>
       <c r="C42">
-        <v>0.99998774166266347</v>
+        <v>0.99999428119765532</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -2169,10 +2082,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.00014749561588267568</v>
+        <v>6.2779494180986717e-07</v>
       </c>
       <c r="C43">
-        <v>0.99985250438411732</v>
+        <v>0.99999937220505819</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -2183,10 +2096,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>5.2593760305863491e-05</v>
+        <v>1.922386039243662e-08</v>
       </c>
       <c r="C44">
-        <v>0.99994740623969414</v>
+        <v>0.99999998077613961</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -2197,10 +2110,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1.5075816939602582e-05</v>
+        <v>2.670042132502104e-06</v>
       </c>
       <c r="C45">
-        <v>0.9999849241830604</v>
+        <v>0.9999973299578675</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -2211,10 +2124,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>6.3928099944043915e-05</v>
+        <v>8.9731001295945134e-07</v>
       </c>
       <c r="C46">
-        <v>0.99993607190005596</v>
+        <v>0.99999910268998704</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -2225,10 +2138,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>5.803093001444104e-05</v>
+        <v>3.5361951700174643e-08</v>
       </c>
       <c r="C47">
-        <v>0.99994196906998556</v>
+        <v>0.9999999646380483</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -2239,10 +2152,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1.320699270168646e-05</v>
+        <v>1.4028147671929503e-05</v>
       </c>
       <c r="C48">
-        <v>0.99998679300729831</v>
+        <v>0.99998597185232807</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -2253,10 +2166,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.002210439028847544</v>
+        <v>2.4280570480872402e-05</v>
       </c>
       <c r="C49">
-        <v>0.99778956097115246</v>
+        <v>0.99997571942951913</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -2267,10 +2180,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.0014488655211519763</v>
+        <v>1.6202601873516187e-06</v>
       </c>
       <c r="C50">
-        <v>0.99855113447884802</v>
+        <v>0.99999837973981265</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -2281,10 +2194,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.00018598648220680134</v>
+        <v>2.8118208317273741e-08</v>
       </c>
       <c r="C51">
-        <v>0.9998140135177932</v>
+        <v>0.99999997188179168</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -2295,10 +2208,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1.6377485616447807e-05</v>
+        <v>1.4134864692816329e-05</v>
       </c>
       <c r="C52">
-        <v>0.99998362251438355</v>
+        <v>0.99998586513530718</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -2309,13 +2222,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.00041522629241486086</v>
+        <v>0.97019931444025453</v>
       </c>
       <c r="C53">
-        <v>0.99958477370758514</v>
+        <v>0.029800685559745431</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2323,10 +2236,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.18997736473419244</v>
+        <v>1.6564265548080215e-07</v>
       </c>
       <c r="C54">
-        <v>0.81002263526580764</v>
+        <v>0.99999983435734452</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -2337,10 +2250,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>9.5559453211824241e-05</v>
+        <v>3.09860848091148e-09</v>
       </c>
       <c r="C55">
-        <v>0.99990444054678818</v>
+        <v>0.99999999690139152</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -2351,10 +2264,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>4.4787627817566289e-07</v>
+        <v>2.6840168976249856e-08</v>
       </c>
       <c r="C56">
-        <v>0.99999955212372182</v>
+        <v>0.99999997315983102</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -2365,13 +2278,13 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>8.1144864513271742e-06</v>
+        <v>0.98098913863759352</v>
       </c>
       <c r="C57">
-        <v>0.99999188551354867</v>
+        <v>0.019010861362406539</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2379,10 +2292,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.26903585122594142</v>
+        <v>1.5034338018971027e-07</v>
       </c>
       <c r="C58">
-        <v>0.73096414877405858</v>
+        <v>0.99999984965661981</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -2393,13 +2306,13 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1.5700745197522181e-05</v>
+        <v>0.99943887540807685</v>
       </c>
       <c r="C59">
-        <v>0.99998429925480248</v>
+        <v>0.00056112459192317224</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2407,10 +2320,10 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.82059167751937356</v>
+        <v>0.94063201318175826</v>
       </c>
       <c r="C60">
-        <v>0.17940832248062649</v>
+        <v>0.059367986818241777</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2421,10 +2334,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.02735002588441815</v>
+        <v>6.2100371511775165e-09</v>
       </c>
       <c r="C61">
-        <v>0.97264997411558185</v>
+        <v>0.99999999378996285</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -2435,13 +2348,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1.017577668682712e-06</v>
+        <v>0.85654851525245623</v>
       </c>
       <c r="C62">
-        <v>0.99999898242233132</v>
+        <v>0.14345148474754366</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2449,10 +2362,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.098318740021767659</v>
+        <v>8.1511788130317353e-07</v>
       </c>
       <c r="C63">
-        <v>0.90168125997823234</v>
+        <v>0.9999991848821187</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -2463,13 +2376,13 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2.7962181525120755e-05</v>
+        <v>0.98823083326983641</v>
       </c>
       <c r="C64">
-        <v>0.99997203781847488</v>
+        <v>0.011769166730163547</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2477,10 +2390,10 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.20258029301606853</v>
+        <v>1.5296405375675448e-07</v>
       </c>
       <c r="C65">
-        <v>0.7974197069839315</v>
+        <v>0.99999984703594624</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -2491,10 +2404,10 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.00012279057310715658</v>
+        <v>4.4834098695822888e-06</v>
       </c>
       <c r="C66">
-        <v>0.99987720942689284</v>
+        <v>0.99999551659013042</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -2505,10 +2418,10 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.00012843682307817073</v>
+        <v>6.2100371511775165e-09</v>
       </c>
       <c r="C67">
-        <v>0.99987156317692183</v>
+        <v>0.99999999378996285</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -2519,13 +2432,13 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.0011045937655469462</v>
+        <v>0.96648813859102722</v>
       </c>
       <c r="C68">
-        <v>0.99889540623445305</v>
+        <v>0.033511861408972755</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2533,10 +2446,10 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1.017577668682712e-06</v>
+        <v>2.7842840699676681e-06</v>
       </c>
       <c r="C69">
-        <v>0.99999898242233132</v>
+        <v>0.99999721571593003</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -2547,10 +2460,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.24835044636730019</v>
+        <v>3.449767112451152e-05</v>
       </c>
       <c r="C70">
-        <v>0.75164955363269992</v>
+        <v>0.99996550232887549</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -2561,10 +2474,10 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.0004404655554136605</v>
+        <v>1.6932863217911098e-05</v>
       </c>
       <c r="C71">
-        <v>0.99955953444458634</v>
+        <v>0.99998306713678209</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -2575,10 +2488,10 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.00011361174364288296</v>
+        <v>2.8665809080896661e-06</v>
       </c>
       <c r="C72">
-        <v>0.99988638825635712</v>
+        <v>0.99999713341909191</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -2589,10 +2502,10 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.00029911381667746539</v>
+        <v>4.8579372724066872e-05</v>
       </c>
       <c r="C73">
-        <v>0.99970088618332253</v>
+        <v>0.99995142062727593</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -2603,10 +2516,10 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.00055366350801977493</v>
+        <v>1.4072497833694797e-07</v>
       </c>
       <c r="C74">
-        <v>0.99944633649198023</v>
+        <v>0.99999985927502166</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -2617,10 +2530,10 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.0011211446214135501</v>
+        <v>4.9279443248284593e-07</v>
       </c>
       <c r="C75">
-        <v>0.99887885537858645</v>
+        <v>0.99999950720556752</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -2631,13 +2544,13 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>4.8144575450326244e-05</v>
+        <v>0.95693018057713297</v>
       </c>
       <c r="C76">
-        <v>0.99995185542454967</v>
+        <v>0.04306981942286698</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2645,10 +2558,10 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.00082664665761911227</v>
+        <v>8.3518380364910882e-06</v>
       </c>
       <c r="C77">
-        <v>0.99917335334238089</v>
+        <v>0.99999164816196351</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -2659,10 +2572,10 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1.1448573915107117e-05</v>
+        <v>4.4544743310614976e-06</v>
       </c>
       <c r="C78">
-        <v>0.99998855142608489</v>
+        <v>0.99999554552566894</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -2673,10 +2586,10 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2.1927448021430426e-05</v>
+        <v>5.9581573519373876e-07</v>
       </c>
       <c r="C79">
-        <v>0.99997807255197857</v>
+        <v>0.99999940418426481</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -2687,10 +2600,10 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.25942365875480144</v>
+        <v>8.3518380364910882e-06</v>
       </c>
       <c r="C80">
-        <v>0.74057634124519856</v>
+        <v>0.99999164816196351</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -2701,13 +2614,13 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.00024563789640807965</v>
+        <v>0.99251430615791791</v>
       </c>
       <c r="C81">
-        <v>0.99975436210359192</v>
+        <v>0.0074856938420820428</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2715,10 +2628,10 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.00012866327168492564</v>
+        <v>6.2071620110515369e-07</v>
       </c>
       <c r="C82">
-        <v>0.99987133672831507</v>
+        <v>0.99999937928379889</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -2729,10 +2642,10 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>3.0009418964693779e-05</v>
+        <v>2.5841994019115688e-06</v>
       </c>
       <c r="C83">
-        <v>0.99996999058103531</v>
+        <v>0.99999741580059809</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -2743,10 +2656,10 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.00024563789640807965</v>
+        <v>2.3217229649930005e-07</v>
       </c>
       <c r="C84">
-        <v>0.99975436210359192</v>
+        <v>0.9999997678277035</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -2757,10 +2670,10 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.22901711797483038</v>
+        <v>3.6938225367322275e-08</v>
       </c>
       <c r="C85">
-        <v>0.77098288202516962</v>
+        <v>0.99999996306177463</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -2771,10 +2684,10 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>2.6447849370003773e-05</v>
+        <v>1.783787173526008e-08</v>
       </c>
       <c r="C86">
-        <v>0.99997355215063</v>
+        <v>0.99999998216212826</v>
       </c>
       <c r="D86">
         <v>2</v>
@@ -2785,10 +2698,10 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>6.6957983407056609e-05</v>
+        <v>1.4659517350024132e-06</v>
       </c>
       <c r="C87">
-        <v>0.99993304201659294</v>
+        <v>0.999998534048265</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -2799,10 +2712,10 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>8.6451252108155074e-06</v>
+        <v>8.3518380364910882e-06</v>
       </c>
       <c r="C88">
-        <v>0.99999135487478918</v>
+        <v>0.99999164816196351</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -2813,10 +2726,10 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>4.7307924602169038e-06</v>
+        <v>6.6099510960260233e-06</v>
       </c>
       <c r="C89">
-        <v>0.99999526920753978</v>
+        <v>0.99999339004890397</v>
       </c>
       <c r="D89">
         <v>2</v>
@@ -2827,13 +2740,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1.1127934396171213e-06</v>
+        <v>0.93116235844553696</v>
       </c>
       <c r="C90">
-        <v>0.99999888720656038</v>
+        <v>0.068837641554463078</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2841,10 +2754,10 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>6.090582105588993e-05</v>
+        <v>3.5353802930737643e-06</v>
       </c>
       <c r="C91">
-        <v>0.99993909417894411</v>
+        <v>0.99999646461970693</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -2855,10 +2768,10 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.00024563789640807965</v>
+        <v>5.4245252778528652e-07</v>
       </c>
       <c r="C92">
-        <v>0.99975436210359192</v>
+        <v>0.99999945754747221</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -2869,10 +2782,10 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.00020323296671520552</v>
+        <v>7.6595733089490636e-09</v>
       </c>
       <c r="C93">
-        <v>0.99979676703328479</v>
+        <v>0.99999999234042669</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -2883,13 +2796,13 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.072249629285502048</v>
+        <v>0.98723296316893583</v>
       </c>
       <c r="C94">
-        <v>0.92775037071449795</v>
+        <v>0.012767036831064197</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2897,10 +2810,10 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.00011448577248029945</v>
+        <v>0.17919796748257058</v>
       </c>
       <c r="C95">
-        <v>0.9998855142275197</v>
+        <v>0.82080203251742945</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -2911,10 +2824,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>3.5863956741044589e-05</v>
+        <v>0.0066657927850842791</v>
       </c>
       <c r="C96">
-        <v>0.99996413604325896</v>
+        <v>0.99333420721491572</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -2925,10 +2838,10 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>5.7428689970162594e-07</v>
+        <v>3.802763856119995e-05</v>
       </c>
       <c r="C97">
-        <v>0.9999994257131003</v>
+        <v>0.9999619723614388</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -2939,10 +2852,10 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.28665989653471668</v>
+        <v>1.6869753042159097e-05</v>
       </c>
       <c r="C98">
-        <v>0.71334010346528343</v>
+        <v>0.99998313024695784</v>
       </c>
       <c r="D98">
         <v>2</v>
@@ -2953,10 +2866,10 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.20887350774950988</v>
+        <v>6.0015992175976862e-11</v>
       </c>
       <c r="C99">
-        <v>0.79112649225049014</v>
+        <v>0.99999999993998401</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2967,10 +2880,10 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.0020857687123824187</v>
+        <v>2.5336452935675879e-09</v>
       </c>
       <c r="C100">
-        <v>0.99791423128761758</v>
+        <v>0.99999999746635471</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -2981,10 +2894,10 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>4.559250896818412e-07</v>
+        <v>0.090873195739182955</v>
       </c>
       <c r="C101">
-        <v>0.99999954407491032</v>
+        <v>0.90912680426081705</v>
       </c>
       <c r="D101">
         <v>2</v>
@@ -2995,10 +2908,10 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1.3305195711854623e-07</v>
+        <v>0.16198088535799815</v>
       </c>
       <c r="C102">
-        <v>0.99999986694804288</v>
+        <v>0.83801911464200185</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -3009,10 +2922,10 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>6.7988335418212031e-06</v>
+        <v>0.0013764038101143905</v>
       </c>
       <c r="C103">
-        <v>0.99999320116645818</v>
+        <v>0.99862359618988561</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -3023,10 +2936,10 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.025784805025809598</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0.9742151949741904</v>
+        <v>1</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -3037,10 +2950,10 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0.1666285132109665</v>
+        <v>1.9114734406411316e-07</v>
       </c>
       <c r="C105">
-        <v>0.8333714867890335</v>
+        <v>0.99999980885265594</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -3051,13 +2964,13 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.33871133905150586</v>
+        <v>0.72970219663338209</v>
       </c>
       <c r="C106">
-        <v>0.66128866094849414</v>
+        <v>0.27029780336661796</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3065,10 +2978,10 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.063127242827103691</v>
+        <v>7.4127549765101719e-08</v>
       </c>
       <c r="C107">
-        <v>0.93687275717289631</v>
+        <v>0.99999992587245023</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -3079,10 +2992,10 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.0025684350354552299</v>
+        <v>1.840754431547964e-06</v>
       </c>
       <c r="C108">
-        <v>0.99743156496454477</v>
+        <v>0.99999815924556845</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -3093,10 +3006,10 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>5.3290705182007514e-14</v>
+        <v>2.0470939088301776e-07</v>
       </c>
       <c r="C109">
-        <v>0.99999999999994671</v>
+        <v>0.99999979529060912</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -3107,10 +3020,10 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>2.8212389834414431e-05</v>
+        <v>2.0935612768946399e-06</v>
       </c>
       <c r="C110">
-        <v>0.99997178761016559</v>
+        <v>0.99999790643872311</v>
       </c>
       <c r="D110">
         <v>2</v>
@@ -3121,13 +3034,13 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0.03183819581663816</v>
+        <v>0.97960927470684256</v>
       </c>
       <c r="C111">
-        <v>0.96816180418336184</v>
+        <v>0.020390725293157424</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -3135,10 +3048,10 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>6.8376851526386062e-06</v>
+        <v>3.46460525468828e-06</v>
       </c>
       <c r="C112">
-        <v>0.99999316231484736</v>
+        <v>0.99999653539474531</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -3149,10 +3062,10 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>6.8212995905647666e-05</v>
+        <v>1.3207990441133077e-05</v>
       </c>
       <c r="C113">
-        <v>0.99993178700409435</v>
+        <v>0.99998679200955887</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -3163,13 +3076,13 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>6.0367811355099832e-05</v>
+        <v>0.90426561495045343</v>
       </c>
       <c r="C114">
-        <v>0.9999396321886449</v>
+        <v>0.095734385049546553</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3177,10 +3090,10 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.0042608723827033401</v>
+        <v>2.9406934387576911e-07</v>
       </c>
       <c r="C115">
-        <v>0.99573912761729666</v>
+        <v>0.99999970593065612</v>
       </c>
       <c r="D115">
         <v>2</v>
@@ -3191,10 +3104,10 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.0010158413493853713</v>
+        <v>7.2828385599965628e-07</v>
       </c>
       <c r="C116">
-        <v>0.99898415865061463</v>
+        <v>0.999999271716144</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -3205,10 +3118,10 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>3.0604807757628194e-05</v>
+        <v>4.1982923582040144e-08</v>
       </c>
       <c r="C117">
-        <v>0.99996939519224237</v>
+        <v>0.99999995801707642</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -3219,10 +3132,10 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>5.6512833708555199e-05</v>
+        <v>2.7584855177842371e-08</v>
       </c>
       <c r="C118">
-        <v>0.99994348716629144</v>
+        <v>0.99999997241514482</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -3233,10 +3146,10 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>5.6090349997983679e-06</v>
+        <v>1.0912270254070933e-07</v>
       </c>
       <c r="C119">
-        <v>0.9999943909650002</v>
+        <v>0.99999989087729746</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -3247,10 +3160,10 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.024255548747257997</v>
+        <v>9.3857361993521238e-08</v>
       </c>
       <c r="C120">
-        <v>0.97574445125274201</v>
+        <v>0.99999990614263801</v>
       </c>
       <c r="D120">
         <v>2</v>
@@ -3261,10 +3174,10 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>5.1105078693547419e-05</v>
+        <v>6.5322719000615592e-07</v>
       </c>
       <c r="C121">
-        <v>0.99994889492130645</v>
+        <v>0.99999934677280999</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -3275,10 +3188,10 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.00043312746896961851</v>
+        <v>4.6361412259221524e-05</v>
       </c>
       <c r="C122">
-        <v>0.99956687253103038</v>
+        <v>0.99995363858774078</v>
       </c>
       <c r="D122">
         <v>2</v>
@@ -3289,10 +3202,10 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.11396923897181988</v>
+        <v>4.3776093860969922e-12</v>
       </c>
       <c r="C123">
-        <v>0.88603076102818012</v>
+        <v>0.99999999999562239</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -3303,13 +3216,13 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>1.2279071250897999e-05</v>
+        <v>0.98834551935223081</v>
       </c>
       <c r="C124">
-        <v>0.9999877209287491</v>
+        <v>0.011654480647769151</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -3317,10 +3230,10 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>2.0886409646037052e-05</v>
+        <v>4.6448606848548124e-06</v>
       </c>
       <c r="C125">
-        <v>0.99997911359035396</v>
+        <v>0.99999535513931515</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -3331,10 +3244,10 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>2.2288769187084334e-05</v>
+        <v>9.2814644858663087e-14</v>
       </c>
       <c r="C126">
-        <v>0.99997771123081292</v>
+        <v>0.99999999999990719</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -3345,10 +3258,10 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>9.318070411712398e-06</v>
+        <v>5.6011626892171762e-08</v>
       </c>
       <c r="C127">
-        <v>0.99999068192958829</v>
+        <v>0.99999994398837311</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -3359,10 +3272,10 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>2.7267220003013293e-06</v>
+        <v>4.3708248564922059e-07</v>
       </c>
       <c r="C128">
-        <v>0.9999972732779997</v>
+        <v>0.99999956291751435</v>
       </c>
       <c r="D128">
         <v>2</v>
@@ -3373,10 +3286,10 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>3.2317337197440565e-06</v>
+        <v>1.1604554928101862e-07</v>
       </c>
       <c r="C129">
-        <v>0.99999676826628026</v>
+        <v>0.99999988395445072</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -3387,10 +3300,10 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>2.8422658885474128e-05</v>
+        <v>2.6754416344587639e-06</v>
       </c>
       <c r="C130">
-        <v>0.99997157734111453</v>
+        <v>0.99999732455836554</v>
       </c>
       <c r="D130">
         <v>2</v>
@@ -3401,13 +3314,13 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.00024790786662254316</v>
+        <v>0.97168568459144022</v>
       </c>
       <c r="C131">
-        <v>0.99975209213337746</v>
+        <v>0.028314315408559762</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -3415,13 +3328,13 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.00028604405213694672</v>
+        <v>0.71684020214764388</v>
       </c>
       <c r="C132">
-        <v>0.99971395594786305</v>
+        <v>0.28315979785235612</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -3429,10 +3342,10 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.0005385069305162693</v>
+        <v>2.3591231440467375e-05</v>
       </c>
       <c r="C133">
-        <v>0.99946149306948373</v>
+        <v>0.99997640876855953</v>
       </c>
       <c r="D133">
         <v>2</v>
@@ -3443,10 +3356,10 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.00084693288254023003</v>
+        <v>1.9224431927700181e-05</v>
       </c>
       <c r="C134">
-        <v>0.99915306711745977</v>
+        <v>0.9999807755680723</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -3457,10 +3370,10 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.0031531076983294382</v>
+        <v>9.0326373480831279e-07</v>
       </c>
       <c r="C135">
-        <v>0.99684689230167056</v>
+        <v>0.99999909673626519</v>
       </c>
       <c r="D135">
         <v>2</v>
@@ -3471,10 +3384,10 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>2.1190400545378907e-09</v>
+        <v>1.7339441049646354e-07</v>
       </c>
       <c r="C136">
-        <v>0.99999999788095995</v>
+        <v>0.9999998266055895</v>
       </c>
       <c r="D136">
         <v>2</v>
@@ -3485,13 +3398,13 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.024524944206672061</v>
+        <v>0.65360553785795594</v>
       </c>
       <c r="C137">
-        <v>0.97547505579332794</v>
+        <v>0.34639446214204406</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -3499,10 +3412,10 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.00011096745239647099</v>
+        <v>5.6919039592706611e-07</v>
       </c>
       <c r="C138">
-        <v>0.99988903254760353</v>
+        <v>0.99999943080960407</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -3513,10 +3426,10 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>4.5752979183077969e-10</v>
+        <v>1.3905290252580471e-08</v>
       </c>
       <c r="C139">
-        <v>0.99999999954247021</v>
+        <v>0.99999998609470975</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -3527,10 +3440,10 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>3.0300793375515056e-06</v>
+        <v>1.8534700108041591e-08</v>
       </c>
       <c r="C140">
-        <v>0.99999696992066245</v>
+        <v>0.99999998146529989</v>
       </c>
       <c r="D140">
         <v>2</v>
@@ -3541,10 +3454,10 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>3.8054862069647477e-05</v>
+        <v>3.7391267859732125e-10</v>
       </c>
       <c r="C141">
-        <v>0.99996194513793035</v>
+        <v>0.99999999962608732</v>
       </c>
       <c r="D141">
         <v>2</v>
@@ -3555,10 +3468,10 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>9.3530942554265195e-06</v>
+        <v>2.7881293487519443e-05</v>
       </c>
       <c r="C142">
-        <v>0.99999064690574457</v>
+        <v>0.99997211870651248</v>
       </c>
       <c r="D142">
         <v>2</v>
@@ -3569,13 +3482,13 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>9.1492711223772893e-05</v>
+        <v>0.70146125175873597</v>
       </c>
       <c r="C143">
-        <v>0.99990850728877623</v>
+        <v>0.29853874824126397</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -3583,10 +3496,10 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.095131269941151397</v>
+        <v>1.440631845162077e-05</v>
       </c>
       <c r="C144">
-        <v>0.9048687300588486</v>
+        <v>0.99998559368154838</v>
       </c>
       <c r="D144">
         <v>2</v>
@@ -3597,10 +3510,10 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.065675010580143467</v>
+        <v>7.9696563792808206e-09</v>
       </c>
       <c r="C145">
-        <v>0.93432498941985653</v>
+        <v>0.99999999203034362</v>
       </c>
       <c r="D145">
         <v>2</v>
@@ -3611,10 +3524,10 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.00055230539675910073</v>
+        <v>9.5035263325549124e-08</v>
       </c>
       <c r="C146">
-        <v>0.9994476946032409</v>
+        <v>0.99999990496473667</v>
       </c>
       <c r="D146">
         <v>2</v>
@@ -3625,10 +3538,10 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.0003307843711902736</v>
+        <v>1.8534700108041591e-08</v>
       </c>
       <c r="C147">
-        <v>0.99966921562880973</v>
+        <v>0.99999998146529989</v>
       </c>
       <c r="D147">
         <v>2</v>
@@ -3639,13 +3552,13 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>4.4348027864127282e-05</v>
+        <v>0.79422898698932931</v>
       </c>
       <c r="C148">
-        <v>0.99995565197213587</v>
+        <v>0.20577101301067074</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -3653,10 +3566,10 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>2.7980536581262427e-05</v>
+        <v>5.2587785338564785e-06</v>
       </c>
       <c r="C149">
-        <v>0.99997201946341874</v>
+        <v>0.99999474122146614</v>
       </c>
       <c r="D149">
         <v>2</v>
@@ -3667,10 +3580,10 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.00023911768844675496</v>
+        <v>2.7953876930997268e-06</v>
       </c>
       <c r="C150">
-        <v>0.99976088231155325</v>
+        <v>0.9999972046123069</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -3681,10 +3594,10 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>9.5776162756244787e-07</v>
+        <v>9.9394406816166736e-08</v>
       </c>
       <c r="C151">
-        <v>0.99999904223837244</v>
+        <v>0.99999990060559318</v>
       </c>
       <c r="D151">
         <v>2</v>
@@ -3695,10 +3608,10 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>1.6945594663475561e-05</v>
+        <v>3.731214130620053e-05</v>
       </c>
       <c r="C152">
-        <v>0.99998305440533652</v>
+        <v>0.9999626878586938</v>
       </c>
       <c r="D152">
         <v>2</v>
@@ -3709,10 +3622,10 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>9.3163458947387312e-08</v>
+        <v>2.3506136817008638e-06</v>
       </c>
       <c r="C153">
-        <v>0.99999990683654105</v>
+        <v>0.9999976493863183</v>
       </c>
       <c r="D153">
         <v>2</v>
@@ -3723,10 +3636,10 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>0.00026686717607338206</v>
+        <v>1.3474509958921743e-06</v>
       </c>
       <c r="C154">
-        <v>0.99973313282392662</v>
+        <v>0.99999865254900411</v>
       </c>
       <c r="D154">
         <v>2</v>
@@ -3737,10 +3650,10 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0.00055068279764303174</v>
+        <v>1.1232144814243838e-07</v>
       </c>
       <c r="C155">
-        <v>0.99944931720235697</v>
+        <v>0.99999988767855186</v>
       </c>
       <c r="D155">
         <v>2</v>
@@ -3751,10 +3664,10 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.12281648494500252</v>
+        <v>0.00020586305875391897</v>
       </c>
       <c r="C156">
-        <v>0.87718351505499748</v>
+        <v>0.99979413694124608</v>
       </c>
       <c r="D156">
         <v>2</v>
@@ -3765,10 +3678,10 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.00042809044770275584</v>
+        <v>1.8512345505317107e-05</v>
       </c>
       <c r="C157">
-        <v>0.99957190955229724</v>
+        <v>0.99998148765449468</v>
       </c>
       <c r="D157">
         <v>2</v>
@@ -3779,10 +3692,10 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.00044407758108011564</v>
+        <v>2.8384380512669338e-08</v>
       </c>
       <c r="C158">
-        <v>0.99955592241891988</v>
+        <v>0.99999997161561949</v>
       </c>
       <c r="D158">
         <v>2</v>
@@ -3793,10 +3706,10 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>1.4595795237992704e-06</v>
+        <v>1.2510614766370054e-10</v>
       </c>
       <c r="C159">
-        <v>0.9999985404204762</v>
+        <v>0.99999999987489385</v>
       </c>
       <c r="D159">
         <v>2</v>
@@ -3807,13 +3720,13 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>1.247130579162814e-05</v>
+        <v>0.81208280528975085</v>
       </c>
       <c r="C160">
-        <v>0.99998752869420837</v>
+        <v>0.18791719471024915</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -3821,13 +3734,13 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>1.6945594663475561e-05</v>
+        <v>0.86380934739567639</v>
       </c>
       <c r="C161">
-        <v>0.99998305440533652</v>
+        <v>0.13619065260432361</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -3835,10 +3748,10 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.91645448793016793</v>
+        <v>0.99628453324649047</v>
       </c>
       <c r="C162">
-        <v>0.083545512069832115</v>
+        <v>0.0037154667535095011</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -3849,10 +3762,10 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.10677078671339581</v>
+        <v>9.4619598152156925e-06</v>
       </c>
       <c r="C163">
-        <v>0.89322921328660421</v>
+        <v>0.99999053804018478</v>
       </c>
       <c r="D163">
         <v>2</v>
@@ -3863,10 +3776,10 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0.00052139410866491875</v>
+        <v>3.4281527863999628e-05</v>
       </c>
       <c r="C164">
-        <v>0.99947860589133508</v>
+        <v>0.999965718472136</v>
       </c>
       <c r="D164">
         <v>2</v>
@@ -3877,10 +3790,10 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0.00055423893712314154</v>
+        <v>2.8666376272745708e-06</v>
       </c>
       <c r="C165">
-        <v>0.99944576106287686</v>
+        <v>0.99999713336237273</v>
       </c>
       <c r="D165">
         <v>2</v>
@@ -3891,13 +3804,13 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>0.00012688004730365687</v>
+        <v>0.91079758490809626</v>
       </c>
       <c r="C166">
-        <v>0.99987311995269634</v>
+        <v>0.089202415091903728</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -3905,10 +3818,10 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>5.9530220269943249e-06</v>
+        <v>7.1200247475644574e-08</v>
       </c>
       <c r="C167">
-        <v>0.99999404697797301</v>
+        <v>0.99999992879975252</v>
       </c>
       <c r="D167">
         <v>2</v>
@@ -3919,10 +3832,10 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.00044999481691421206</v>
+        <v>3.9722785061258037e-08</v>
       </c>
       <c r="C168">
-        <v>0.99955000518308579</v>
+        <v>0.99999996027721494</v>
       </c>
       <c r="D168">
         <v>2</v>
@@ -3933,10 +3846,10 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>0.0007396185393219179</v>
+        <v>6.606091895733357e-09</v>
       </c>
       <c r="C169">
-        <v>0.99926038146067808</v>
+        <v>0.9999999933939081</v>
       </c>
       <c r="D169">
         <v>2</v>
@@ -3947,10 +3860,10 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.00024068273588306877</v>
+        <v>6.9810128788816428e-09</v>
       </c>
       <c r="C170">
-        <v>0.99975931726411693</v>
+        <v>0.99999999301898712</v>
       </c>
       <c r="D170">
         <v>2</v>
@@ -3961,10 +3874,10 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>0.00089646236757368047</v>
+        <v>3.2295259799752785e-09</v>
       </c>
       <c r="C171">
-        <v>0.99910353763242632</v>
+        <v>0.99999999677047402</v>
       </c>
       <c r="D171">
         <v>2</v>
@@ -3975,10 +3888,10 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>3.1847923458117045e-05</v>
+        <v>5.5991003712341217e-06</v>
       </c>
       <c r="C172">
-        <v>0.99996815207654188</v>
+        <v>0.99999440089962877</v>
       </c>
       <c r="D172">
         <v>2</v>
@@ -3989,10 +3902,10 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>1.0302647172610868e-05</v>
+        <v>1.2276354682816404e-05</v>
       </c>
       <c r="C173">
-        <v>0.99998969735282739</v>
+        <v>0.99998772364531718</v>
       </c>
       <c r="D173">
         <v>2</v>
@@ -4003,10 +3916,10 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.0015472819016947303</v>
+        <v>2.2473112260001926e-09</v>
       </c>
       <c r="C174">
-        <v>0.99845271809830527</v>
+        <v>0.99999999775268877</v>
       </c>
       <c r="D174">
         <v>2</v>
@@ -4017,10 +3930,10 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>8.6724729069009867e-05</v>
+        <v>5.4775249199723319e-06</v>
       </c>
       <c r="C175">
-        <v>0.99991327527093099</v>
+        <v>0.99999452247508003</v>
       </c>
       <c r="D175">
         <v>2</v>
@@ -4031,10 +3944,10 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>3.9914096318094394e-06</v>
+        <v>5.6961696304203002e-07</v>
       </c>
       <c r="C176">
-        <v>0.99999600859036819</v>
+        <v>0.99999943038303696</v>
       </c>
       <c r="D176">
         <v>2</v>
@@ -4045,10 +3958,10 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>4.214791826662178e-08</v>
+        <v>4.1183790280285848e-06</v>
       </c>
       <c r="C177">
-        <v>0.99999995785208173</v>
+        <v>0.99999588162097197</v>
       </c>
       <c r="D177">
         <v>2</v>
@@ -4059,10 +3972,10 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>0.022552053688389747</v>
+        <v>6.464410708950652e-07</v>
       </c>
       <c r="C178">
-        <v>0.97744794631161025</v>
+        <v>0.9999993535589291</v>
       </c>
       <c r="D178">
         <v>2</v>
@@ -4073,10 +3986,10 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>0.10268949635328073</v>
+        <v>7.1968326980864639e-05</v>
       </c>
       <c r="C179">
-        <v>0.89731050364671927</v>
+        <v>0.99992803167301914</v>
       </c>
       <c r="D179">
         <v>2</v>
@@ -4087,10 +4000,10 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.086554023541167147</v>
+        <v>3.2084228607232035e-09</v>
       </c>
       <c r="C180">
-        <v>0.91344597645883285</v>
+        <v>0.99999999679157714</v>
       </c>
       <c r="D180">
         <v>2</v>
@@ -4101,10 +4014,10 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>0.00070810755584616025</v>
+        <v>9.2206557764651365e-06</v>
       </c>
       <c r="C181">
-        <v>0.99929189244415384</v>
+        <v>0.99999077934422353</v>
       </c>
       <c r="D181">
         <v>2</v>
@@ -4115,10 +4028,10 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>0.00064921112065807751</v>
+        <v>3.9301105403399811e-07</v>
       </c>
       <c r="C182">
-        <v>0.99935078887934192</v>
+        <v>0.99999960698894597</v>
       </c>
       <c r="D182">
         <v>2</v>
@@ -4129,10 +4042,10 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>9.5598850451961148e-05</v>
+        <v>5.4756412182221936e-08</v>
       </c>
       <c r="C183">
-        <v>0.99990440114954804</v>
+        <v>0.99999994524358782</v>
       </c>
       <c r="D183">
         <v>2</v>
@@ -4143,10 +4056,10 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>0.15367305619349281</v>
+        <v>6.7569174144743727e-07</v>
       </c>
       <c r="C184">
-        <v>0.84632694380650719</v>
+        <v>0.99999932430825855</v>
       </c>
       <c r="D184">
         <v>2</v>
@@ -4157,13 +4070,13 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>6.3343841202323503e-06</v>
+        <v>0.91519577849009059</v>
       </c>
       <c r="C185">
-        <v>0.99999366561587977</v>
+        <v>0.084804221509909392</v>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -4171,10 +4084,10 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>4.7843996775487341e-06</v>
+        <v>4.8926930729109586e-08</v>
       </c>
       <c r="C186">
-        <v>0.99999521560032245</v>
+        <v>0.99999995107306927</v>
       </c>
       <c r="D186">
         <v>2</v>
@@ -4185,10 +4098,10 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>6.8260048925461447e-06</v>
+        <v>1.7141059005076897e-05</v>
       </c>
       <c r="C187">
-        <v>0.99999317399510745</v>
+        <v>0.99998285894099492</v>
       </c>
       <c r="D187">
         <v>2</v>
@@ -4199,10 +4112,10 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>1.6177449814192002e-06</v>
+        <v>6.929035123448557e-10</v>
       </c>
       <c r="C188">
-        <v>0.99999838225501858</v>
+        <v>0.99999999930709649</v>
       </c>
       <c r="D188">
         <v>2</v>
@@ -4213,10 +4126,10 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>3.0996014691586637e-06</v>
+        <v>1.5470530101424629e-07</v>
       </c>
       <c r="C189">
-        <v>0.99999690039853084</v>
+        <v>0.99999984529469899</v>
       </c>
       <c r="D189">
         <v>2</v>
@@ -4227,10 +4140,10 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>0.00014136576526979638</v>
+        <v>3.2465104049528293e-08</v>
       </c>
       <c r="C190">
-        <v>0.9998586342347302</v>
+        <v>0.99999996753489595</v>
       </c>
       <c r="D190">
         <v>2</v>
@@ -4241,13 +4154,13 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>0.00022022165120338941</v>
+        <v>0.97990054987946562</v>
       </c>
       <c r="C191">
-        <v>0.99977977834879661</v>
+        <v>0.020099450120534365</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -4255,10 +4168,10 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>1.0150938410946608e-06</v>
+        <v>1.5611154591255172e-07</v>
       </c>
       <c r="C192">
-        <v>0.99999898490615891</v>
+        <v>0.99999984388845409</v>
       </c>
       <c r="D192">
         <v>2</v>
@@ -4269,10 +4182,10 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>0.00011965440002703609</v>
+        <v>7.3881104039053014e-06</v>
       </c>
       <c r="C193">
-        <v>0.99988034559997296</v>
+        <v>0.99999261188959609</v>
       </c>
       <c r="D193">
         <v>2</v>
@@ -4283,10 +4196,10 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>3.2368157832807221e-05</v>
+        <v>6.3994033883130186e-07</v>
       </c>
       <c r="C194">
-        <v>0.99996763184216719</v>
+        <v>0.99999936005966117</v>
       </c>
       <c r="D194">
         <v>2</v>
@@ -4297,10 +4210,10 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0.00014999388646663725</v>
+        <v>2.1367905456148861e-07</v>
       </c>
       <c r="C195">
-        <v>0.99985000611353336</v>
+        <v>0.99999978632094544</v>
       </c>
       <c r="D195">
         <v>2</v>
@@ -4311,10 +4224,10 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>3.7861926110993593e-05</v>
+        <v>7.004546446198745e-07</v>
       </c>
       <c r="C196">
-        <v>0.99996213807388901</v>
+        <v>0.99999929954535538</v>
       </c>
       <c r="D196">
         <v>2</v>
@@ -4325,13 +4238,13 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0.00096003659423249399</v>
+        <v>0.5969152578291379</v>
       </c>
       <c r="C197">
-        <v>0.99903996340576751</v>
+        <v>0.40308474217086204</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -4339,10 +4252,10 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>4.741038402977793e-07</v>
+        <v>3.2759793196279752e-05</v>
       </c>
       <c r="C198">
-        <v>0.9999995258961597</v>
+        <v>0.99996724020680372</v>
       </c>
       <c r="D198">
         <v>2</v>
@@ -4353,10 +4266,10 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0.0002253017466959939</v>
+        <v>2.2347929728994131e-08</v>
       </c>
       <c r="C199">
-        <v>0.99977469825330401</v>
+        <v>0.99999997765207027</v>
       </c>
       <c r="D199">
         <v>2</v>
@@ -4367,10 +4280,10 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>1.5236508311700092e-05</v>
+        <v>1.9164645250757673e-06</v>
       </c>
       <c r="C200">
-        <v>0.9999847634916883</v>
+        <v>0.99999808353547492</v>
       </c>
       <c r="D200">
         <v>2</v>
@@ -4381,10 +4294,10 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>3.0853054229007526e-05</v>
+        <v>3.1343307949072141e-09</v>
       </c>
       <c r="C201">
-        <v>0.99996914694577099</v>
+        <v>0.99999999686566921</v>
       </c>
       <c r="D201">
         <v>2</v>
@@ -4395,10 +4308,10 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>1.9464770795174502e-05</v>
+        <v>1.5996165503295856e-08</v>
       </c>
       <c r="C202">
-        <v>0.99998053522920483</v>
+        <v>0.9999999840038345</v>
       </c>
       <c r="D202">
         <v>2</v>
@@ -4409,10 +4322,10 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>0.0011262167491575825</v>
+        <v>2.9466775686159963e-09</v>
       </c>
       <c r="C203">
-        <v>0.99887378325084242</v>
+        <v>0.99999999705332243</v>
       </c>
       <c r="D203">
         <v>2</v>
@@ -4423,10 +4336,10 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>0.54044531181498479</v>
+        <v>0.86639115612271833</v>
       </c>
       <c r="C204">
-        <v>0.45955468818501527</v>
+        <v>0.13360884387728164</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -4437,10 +4350,10 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>1.002185183951454e-05</v>
+        <v>1.6711111272549317e-08</v>
       </c>
       <c r="C205">
-        <v>0.99998997814816049</v>
+        <v>0.99999998328888873</v>
       </c>
       <c r="D205">
         <v>2</v>
@@ -4451,10 +4364,10 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>0.00027311102094151885</v>
+        <v>1.7623082118056743e-06</v>
       </c>
       <c r="C206">
-        <v>0.99972688897905848</v>
+        <v>0.99999823769178819</v>
       </c>
       <c r="D206">
         <v>2</v>
@@ -4465,10 +4378,10 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>1.2775177882229372e-07</v>
+        <v>8.1069579693782146e-07</v>
       </c>
       <c r="C207">
-        <v>0.99999987224822118</v>
+        <v>0.99999918930420306</v>
       </c>
       <c r="D207">
         <v>2</v>
@@ -4479,10 +4392,10 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>5.1267262115684005e-05</v>
+        <v>7.5546287192640449e-07</v>
       </c>
       <c r="C208">
-        <v>0.99994873273788432</v>
+        <v>0.99999924453712807</v>
       </c>
       <c r="D208">
         <v>2</v>
@@ -4493,10 +4406,10 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>3.9306625615465052e-06</v>
+        <v>1.234010319706158e-06</v>
       </c>
       <c r="C209">
-        <v>0.99999606933743845</v>
+        <v>0.99999876598968029</v>
       </c>
       <c r="D209">
         <v>2</v>
@@ -4507,10 +4420,10 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.48772451103695846</v>
+        <v>8.389820012055792e-07</v>
       </c>
       <c r="C210">
-        <v>0.51227548896304154</v>
+        <v>0.99999916101799879</v>
       </c>
       <c r="D210">
         <v>2</v>
@@ -4521,10 +4434,10 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0.00013337022658055364</v>
+        <v>0.0004792121729161325</v>
       </c>
       <c r="C211">
-        <v>0.99986662977341945</v>
+        <v>0.99952078782708387</v>
       </c>
       <c r="D211">
         <v>2</v>
@@ -4535,10 +4448,10 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>1.5766373717918114e-05</v>
+        <v>8.389820012055792e-07</v>
       </c>
       <c r="C212">
-        <v>0.99998423362628208</v>
+        <v>0.99999916101799879</v>
       </c>
       <c r="D212">
         <v>2</v>
@@ -4549,10 +4462,10 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>1.1526380919724133e-06</v>
+        <v>2.9742400139420866e-06</v>
       </c>
       <c r="C213">
-        <v>0.99999884736190803</v>
+        <v>0.99999702575998606</v>
       </c>
       <c r="D213">
         <v>2</v>
@@ -4563,10 +4476,10 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0.00019547655629981175</v>
+        <v>4.9592049855551323e-07</v>
       </c>
       <c r="C214">
-        <v>0.99980452344370019</v>
+        <v>0.99999950407950144</v>
       </c>
       <c r="D214">
         <v>2</v>
@@ -4577,10 +4490,10 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>1.8356031914801285e-05</v>
+        <v>2.9884517743772321e-05</v>
       </c>
       <c r="C215">
-        <v>0.9999816439680852</v>
+        <v>0.99997011548225623</v>
       </c>
       <c r="D215">
         <v>2</v>
@@ -4591,10 +4504,10 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>1.2247468501924706e-05</v>
+        <v>2.1322541732260447e-08</v>
       </c>
       <c r="C216">
-        <v>0.99998775253149808</v>
+        <v>0.99999997867745827</v>
       </c>
       <c r="D216">
         <v>2</v>
@@ -4605,10 +4518,10 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>1.659259805975033e-05</v>
+        <v>2.6177555711992539e-07</v>
       </c>
       <c r="C217">
-        <v>0.99998340740194025</v>
+        <v>0.99999973822444288</v>
       </c>
       <c r="D217">
         <v>2</v>
@@ -4619,10 +4532,10 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>0.054441985381493918</v>
+        <v>1.5098012839942498e-08</v>
       </c>
       <c r="C218">
-        <v>0.94555801461850608</v>
+        <v>0.99999998490198716</v>
       </c>
       <c r="D218">
         <v>2</v>
@@ -4633,10 +4546,10 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>0.0013748988200326107</v>
+        <v>2.7366100244785585e-06</v>
       </c>
       <c r="C219">
-        <v>0.99862510117996739</v>
+        <v>0.99999726338997552</v>
       </c>
       <c r="D219">
         <v>2</v>
@@ -4647,10 +4560,10 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>0.00036654101041933007</v>
+        <v>4.6635269435046922e-07</v>
       </c>
       <c r="C220">
-        <v>0.99963345898958067</v>
+        <v>0.99999953364730565</v>
       </c>
       <c r="D220">
         <v>2</v>
@@ -4661,10 +4574,10 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>2.4738284459813187e-06</v>
+        <v>3.8849814554264839e-07</v>
       </c>
       <c r="C221">
-        <v>0.99999752617155402</v>
+        <v>0.99999961150185446</v>
       </c>
       <c r="D221">
         <v>2</v>
@@ -4675,10 +4588,10 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>7.551842355257854e-05</v>
+        <v>1.0190381871666432e-10</v>
       </c>
       <c r="C222">
-        <v>0.99992448157644742</v>
+        <v>0.99999999989809618</v>
       </c>
       <c r="D222">
         <v>2</v>
@@ -4689,10 +4602,10 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>0.00016345254125171849</v>
+        <v>3.1362692443082096e-09</v>
       </c>
       <c r="C223">
-        <v>0.99983654745874828</v>
+        <v>0.99999999686373076</v>
       </c>
       <c r="D223">
         <v>2</v>
@@ -4703,10 +4616,10 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>7.4032863672801586e-07</v>
+        <v>1.0855245702323657e-07</v>
       </c>
       <c r="C224">
-        <v>0.99999925967136327</v>
+        <v>0.99999989144754298</v>
       </c>
       <c r="D224">
         <v>2</v>
@@ -4717,10 +4630,10 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>1.3228791194697109e-06</v>
+        <v>5.4178982056285463e-07</v>
       </c>
       <c r="C225">
-        <v>0.99999867712088053</v>
+        <v>0.99999945821017944</v>
       </c>
       <c r="D225">
         <v>2</v>
@@ -4731,10 +4644,10 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>6.3829075358512455e-07</v>
+        <v>8.389820012055792e-07</v>
       </c>
       <c r="C226">
-        <v>0.99999936170924641</v>
+        <v>0.99999916101799879</v>
       </c>
       <c r="D226">
         <v>2</v>
@@ -4745,10 +4658,10 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.27626796485419003</v>
+        <v>1.0453826791989584e-06</v>
       </c>
       <c r="C227">
-        <v>0.72373203514580997</v>
+        <v>0.9999989546173208</v>
       </c>
       <c r="D227">
         <v>2</v>
@@ -4759,10 +4672,10 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>2.3590500839443251e-06</v>
+        <v>7.8224749899824531e-08</v>
       </c>
       <c r="C228">
-        <v>0.99999764094991606</v>
+        <v>0.9999999217752501</v>
       </c>
       <c r="D228">
         <v>2</v>
@@ -4773,10 +4686,10 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>8.5059357082584164e-05</v>
+        <v>5.5376852303723467e-07</v>
       </c>
       <c r="C229">
-        <v>0.99991494064291742</v>
+        <v>0.99999944623147696</v>
       </c>
       <c r="D229">
         <v>2</v>
@@ -4787,10 +4700,10 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>3.6515600812192517e-05</v>
+        <v>8.8759619409906065e-07</v>
       </c>
       <c r="C230">
-        <v>0.99996348439918781</v>
+        <v>0.9999991124038059</v>
       </c>
       <c r="D230">
         <v>2</v>
@@ -4801,10 +4714,10 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>3.7341118193423561e-05</v>
+        <v>8.6789464504022362e-11</v>
       </c>
       <c r="C231">
-        <v>0.99996265888180658</v>
+        <v>0.99999999991321054</v>
       </c>
       <c r="D231">
         <v>2</v>
@@ -4815,10 +4728,10 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>4.2028729297927114e-05</v>
+        <v>9.7456451547683898e-06</v>
       </c>
       <c r="C232">
-        <v>0.99995797127070207</v>
+        <v>0.99999025435484523</v>
       </c>
       <c r="D232">
         <v>2</v>
@@ -4829,10 +4742,10 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>3.2382989202051071e-05</v>
+        <v>3.9127124873417074e-08</v>
       </c>
       <c r="C233">
-        <v>0.99996761701079795</v>
+        <v>0.99999996087287513</v>
       </c>
       <c r="D233">
         <v>2</v>
@@ -4843,10 +4756,10 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>0.0037121860796138773</v>
+        <v>5.4146361272433552e-07</v>
       </c>
       <c r="C234">
-        <v>0.99628781392038612</v>
+        <v>0.99999945853638728</v>
       </c>
       <c r="D234">
         <v>2</v>
@@ -4857,10 +4770,10 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>3.2382989202051071e-05</v>
+        <v>1.3468594443066806e-06</v>
       </c>
       <c r="C235">
-        <v>0.99996761701079795</v>
+        <v>0.99999865314055569</v>
       </c>
       <c r="D235">
         <v>2</v>
@@ -4871,10 +4784,10 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>9.8607575878539855e-05</v>
+        <v>7.5415943379120165e-08</v>
       </c>
       <c r="C236">
-        <v>0.99990139242412146</v>
+        <v>0.99999992458405662</v>
       </c>
       <c r="D236">
         <v>2</v>
@@ -4885,10 +4798,10 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>2.4913801933701411e-05</v>
+        <v>1.7552346009974687e-07</v>
       </c>
       <c r="C237">
-        <v>0.9999750861980663</v>
+        <v>0.9999998244765399</v>
       </c>
       <c r="D237">
         <v>2</v>
@@ -4899,10 +4812,10 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>3.8098941479436377e-07</v>
+        <v>4.1986785459524611e-06</v>
       </c>
       <c r="C238">
-        <v>0.99999961901058521</v>
+        <v>0.99999580132145405</v>
       </c>
       <c r="D238">
         <v>2</v>
@@ -4913,10 +4826,10 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>0.00049785638672938948</v>
+        <v>7.0643621353783104e-06</v>
       </c>
       <c r="C239">
-        <v>0.99950214361327061</v>
+        <v>0.99999293563786462</v>
       </c>
       <c r="D239">
         <v>2</v>
@@ -4927,10 +4840,10 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>3.5213064848438336e-06</v>
+        <v>2.7031075156003222e-09</v>
       </c>
       <c r="C240">
-        <v>0.99999647869351516</v>
+        <v>0.99999999729689248</v>
       </c>
       <c r="D240">
         <v>2</v>
@@ -4941,10 +4854,10 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>1.304867293761003e-05</v>
+        <v>2.429317458307878e-07</v>
       </c>
       <c r="C241">
-        <v>0.99998695132706239</v>
+        <v>0.99999975706825417</v>
       </c>
       <c r="D241">
         <v>2</v>
@@ -4955,10 +4868,10 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>1.7905612033075613e-06</v>
+        <v>1.1299842872292132e-05</v>
       </c>
       <c r="C242">
-        <v>0.99999820943879669</v>
+        <v>0.99998870015712771</v>
       </c>
       <c r="D242">
         <v>2</v>
@@ -4969,10 +4882,10 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>0.00016689178874118582</v>
+        <v>1.3288743614281451e-05</v>
       </c>
       <c r="C243">
-        <v>0.99983310821125881</v>
+        <v>0.99998671125638572</v>
       </c>
       <c r="D243">
         <v>2</v>
@@ -4983,10 +4896,10 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>2.1979609896471963e-05</v>
+        <v>2.1565383556687578e-07</v>
       </c>
       <c r="C244">
-        <v>0.99997802039010353</v>
+        <v>0.99999978434616443</v>
       </c>
       <c r="D244">
         <v>2</v>
@@ -4997,10 +4910,10 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>2.9949760833258843e-05</v>
+        <v>7.9518398610201046e-07</v>
       </c>
       <c r="C245">
-        <v>0.99997005023916674</v>
+        <v>0.9999992048160139</v>
       </c>
       <c r="D245">
         <v>2</v>
@@ -5011,10 +4924,10 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>2.5493150479505289e-08</v>
+        <v>6.6213934977188416e-06</v>
       </c>
       <c r="C246">
-        <v>0.99999997450684952</v>
+        <v>0.99999337860650228</v>
       </c>
       <c r="D246">
         <v>2</v>
@@ -5025,10 +4938,10 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>5.2885432066940297e-07</v>
+        <v>1.3288743614281451e-05</v>
       </c>
       <c r="C247">
-        <v>0.99999947114567933</v>
+        <v>0.99998671125638572</v>
       </c>
       <c r="D247">
         <v>2</v>
@@ -5039,10 +4952,10 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>9.3590591316861094e-06</v>
+        <v>4.2503118435344156e-05</v>
       </c>
       <c r="C248">
-        <v>0.99999064094086831</v>
+        <v>0.99995749688156466</v>
       </c>
       <c r="D248">
         <v>2</v>
@@ -5053,10 +4966,10 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>2.7496449651498445e-05</v>
+        <v>8.9106907896763232e-07</v>
       </c>
       <c r="C249">
-        <v>0.9999725035503485</v>
+        <v>0.99999910893092103</v>
       </c>
       <c r="D249">
         <v>2</v>
@@ -5067,10 +4980,10 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>3.2382989202051071e-05</v>
+        <v>3.8298385829360626e-07</v>
       </c>
       <c r="C250">
-        <v>0.99996761701079795</v>
+        <v>0.99999961701614171</v>
       </c>
       <c r="D250">
         <v>2</v>
@@ -5081,10 +4994,10 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>4.9346502949076942e-05</v>
+        <v>1.9558454222856625e-07</v>
       </c>
       <c r="C251">
-        <v>0.99995065349705092</v>
+        <v>0.99999980441545777</v>
       </c>
       <c r="D251">
         <v>2</v>
@@ -5095,10 +5008,10 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>1.7844331273164649e-05</v>
+        <v>3.723993834414685e-07</v>
       </c>
       <c r="C252">
-        <v>0.99998215566872684</v>
+        <v>0.99999962760061656</v>
       </c>
       <c r="D252">
         <v>2</v>
@@ -5109,10 +5022,10 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>6.527857988158913e-06</v>
+        <v>1.6363356400983518e-06</v>
       </c>
       <c r="C253">
-        <v>0.99999347214201184</v>
+        <v>0.9999983636643599</v>
       </c>
       <c r="D253">
         <v>2</v>
@@ -5123,10 +5036,10 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>3.5003017361923128e-05</v>
+        <v>3.5817072796540117e-07</v>
       </c>
       <c r="C254">
-        <v>0.99996499698263808</v>
+        <v>0.99999964182927203</v>
       </c>
       <c r="D254">
         <v>2</v>
@@ -5137,10 +5050,10 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>3.1476034328958846e-05</v>
+        <v>1.3305538892893763e-09</v>
       </c>
       <c r="C255">
-        <v>0.99996852396567104</v>
+        <v>0.99999999866944611</v>
       </c>
       <c r="D255">
         <v>2</v>
@@ -5151,10 +5064,10 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>3.0502440351298787e-08</v>
+        <v>4.0753178609520546e-09</v>
       </c>
       <c r="C256">
-        <v>0.99999996949755965</v>
+        <v>0.99999999592468214</v>
       </c>
       <c r="D256">
         <v>2</v>
@@ -5165,10 +5078,10 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>0.00024346639080796706</v>
+        <v>3.1721105187010323e-08</v>
       </c>
       <c r="C257">
-        <v>0.99975653360919203</v>
+        <v>0.99999996827889481</v>
       </c>
       <c r="D257">
         <v>2</v>
@@ -5179,10 +5092,10 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>4.3012414523424525e-06</v>
+        <v>2.9237945398108423e-11</v>
       </c>
       <c r="C258">
-        <v>0.99999569875854766</v>
+        <v>0.99999999997076205</v>
       </c>
       <c r="D258">
         <v>2</v>
@@ -5193,10 +5106,10 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>5.4384582915956159e-05</v>
+        <v>0.0012253243027915417</v>
       </c>
       <c r="C259">
-        <v>0.99994561541708404</v>
+        <v>0.99877467569720846</v>
       </c>
       <c r="D259">
         <v>2</v>
@@ -5207,10 +5120,10 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>0.0087797605695971725</v>
+        <v>7.4153294411516413e-06</v>
       </c>
       <c r="C260">
-        <v>0.99122023943040283</v>
+        <v>0.99999258467055885</v>
       </c>
       <c r="D260">
         <v>2</v>
@@ -5221,10 +5134,10 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>3.3995661180452608e-05</v>
+        <v>1.1713294778559202e-09</v>
       </c>
       <c r="C261">
-        <v>0.99996600433881955</v>
+        <v>0.99999999882867052</v>
       </c>
       <c r="D261">
         <v>2</v>
@@ -5235,10 +5148,10 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>1.4828672682432043e-05</v>
+        <v>7.602796947558943e-09</v>
       </c>
       <c r="C262">
-        <v>0.99998517132731757</v>
+        <v>0.99999999239720305</v>
       </c>
       <c r="D262">
         <v>2</v>
@@ -5249,10 +5162,10 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>9.2896935959263516e-06</v>
+        <v>1.3190329729573236e-06</v>
       </c>
       <c r="C263">
-        <v>0.99999071030640407</v>
+        <v>0.99999868096702704</v>
       </c>
       <c r="D263">
         <v>2</v>
@@ -5263,10 +5176,10 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>0.00023724246086509471</v>
+        <v>1.125132174095711e-07</v>
       </c>
       <c r="C264">
-        <v>0.99976275753913491</v>
+        <v>0.99999988748678259</v>
       </c>
       <c r="D264">
         <v>2</v>
@@ -5277,10 +5190,10 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>5.716151582779716e-05</v>
+        <v>1.8828369630075059e-07</v>
       </c>
       <c r="C265">
-        <v>0.9999428384841722</v>
+        <v>0.9999998117163037</v>
       </c>
       <c r="D265">
         <v>2</v>
@@ -5291,10 +5204,10 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>6.5986427524200586e-05</v>
+        <v>7.4189674403868366e-09</v>
       </c>
       <c r="C266">
-        <v>0.9999340135724758</v>
+        <v>0.99999999258103256</v>
       </c>
       <c r="D266">
         <v>2</v>
@@ -5305,10 +5218,10 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>2.9881666963049724e-07</v>
+        <v>6.9519782025517785e-06</v>
       </c>
       <c r="C267">
-        <v>0.99999970118333037</v>
+        <v>0.99999304802179745</v>
       </c>
       <c r="D267">
         <v>2</v>
@@ -5319,10 +5232,10 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>1.2754813506821172e-05</v>
+        <v>5.0815618291011333e-07</v>
       </c>
       <c r="C268">
-        <v>0.99998724518649318</v>
+        <v>0.99999949184381709</v>
       </c>
       <c r="D268">
         <v>2</v>
@@ -5333,10 +5246,10 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>0.0004345852020096741</v>
+        <v>1.7574801502995285e-08</v>
       </c>
       <c r="C269">
-        <v>0.99956541479799033</v>
+        <v>0.9999999824251985</v>
       </c>
       <c r="D269">
         <v>2</v>
@@ -5347,10 +5260,10 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>0.00057541703490926466</v>
+        <v>1.8808525459323988e-07</v>
       </c>
       <c r="C270">
-        <v>0.99942458296509074</v>
+        <v>0.99999981191474541</v>
       </c>
       <c r="D270">
         <v>2</v>
@@ -5361,10 +5274,10 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>1.2662089977300006e-05</v>
+        <v>1.9532840545011254e-07</v>
       </c>
       <c r="C271">
-        <v>0.9999873379100227</v>
+        <v>0.99999980467159455</v>
       </c>
       <c r="D271">
         <v>2</v>
@@ -5375,10 +5288,10 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>5.2230361018534843e-05</v>
+        <v>2.3812841516424044e-06</v>
       </c>
       <c r="C272">
-        <v>0.99994776963898147</v>
+        <v>0.99999761871584836</v>
       </c>
       <c r="D272">
         <v>2</v>
@@ -5389,10 +5302,10 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>0.0001576865725976262</v>
+        <v>0.1488753428768409</v>
       </c>
       <c r="C273">
-        <v>0.99984231342740237</v>
+        <v>0.8511246571231591</v>
       </c>
       <c r="D273">
         <v>2</v>
@@ -5403,10 +5316,10 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>0.00057541703490926466</v>
+        <v>4.5401776727072019e-07</v>
       </c>
       <c r="C274">
-        <v>0.99942458296509074</v>
+        <v>0.99999954598223273</v>
       </c>
       <c r="D274">
         <v>2</v>
@@ -5417,10 +5330,10 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>0.00055200875807792649</v>
+        <v>1.4905176691337729e-05</v>
       </c>
       <c r="C275">
-        <v>0.99944799124192207</v>
+        <v>0.99998509482330866</v>
       </c>
       <c r="D275">
         <v>2</v>
@@ -5431,10 +5344,10 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>4.374566549003589e-05</v>
+        <v>7.2880663726238026e-09</v>
       </c>
       <c r="C276">
-        <v>0.99995625433450996</v>
+        <v>0.99999999271193363</v>
       </c>
       <c r="D276">
         <v>2</v>
@@ -5445,10 +5358,10 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>0.0012147454520700096</v>
+        <v>2.3698039899322509e-06</v>
       </c>
       <c r="C277">
-        <v>0.99878525454792999</v>
+        <v>0.99999763019601007</v>
       </c>
       <c r="D277">
         <v>2</v>
@@ -5459,10 +5372,10 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>0.00026877936615510301</v>
+        <v>4.0356825992127199e-08</v>
       </c>
       <c r="C278">
-        <v>0.9997312206338449</v>
+        <v>0.99999995964317401</v>
       </c>
       <c r="D278">
         <v>2</v>
@@ -5473,10 +5386,10 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>0.00042896348298127052</v>
+        <v>2.7506543565092301e-07</v>
       </c>
       <c r="C279">
-        <v>0.99957103651701873</v>
+        <v>0.99999972493456435</v>
       </c>
       <c r="D279">
         <v>2</v>
@@ -5487,10 +5400,10 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>9.1341162220648351e-05</v>
+        <v>0.0004279125146432472</v>
       </c>
       <c r="C280">
-        <v>0.99990865883777935</v>
+        <v>0.99957208748535675</v>
       </c>
       <c r="D280">
         <v>2</v>
@@ -5501,10 +5414,10 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>4.4762503962458844e-05</v>
+        <v>0.30064560875157342</v>
       </c>
       <c r="C281">
-        <v>0.99995523749603754</v>
+        <v>0.69935439124842658</v>
       </c>
       <c r="D281">
         <v>2</v>
@@ -5515,10 +5428,10 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>1.2427591433716856e-07</v>
+        <v>0.15814546508766025</v>
       </c>
       <c r="C282">
-        <v>0.99999987572408566</v>
+        <v>0.84185453491233975</v>
       </c>
       <c r="D282">
         <v>2</v>
@@ -5529,10 +5442,10 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>3.8810186830939841e-06</v>
+        <v>2.4792562663855655e-05</v>
       </c>
       <c r="C283">
-        <v>0.99999611898131691</v>
+        <v>0.99997520743733614</v>
       </c>
       <c r="D283">
         <v>2</v>
@@ -5543,10 +5456,10 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>1.9278283374113414e-06</v>
+        <v>0.1473841342895944</v>
       </c>
       <c r="C284">
-        <v>0.99999807217166259</v>
+        <v>0.8526158657104056</v>
       </c>
       <c r="D284">
         <v>2</v>
@@ -5557,10 +5470,10 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>7.6669360749015425e-08</v>
+        <v>0.026892680808670914</v>
       </c>
       <c r="C285">
-        <v>0.99999992333063925</v>
+        <v>0.97310731919132909</v>
       </c>
       <c r="D285">
         <v>2</v>
@@ -5571,10 +5484,10 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>0.02241495902349111</v>
+        <v>0.0030944196975613014</v>
       </c>
       <c r="C286">
-        <v>0.97758504097650889</v>
+        <v>0.9969055803024387</v>
       </c>
       <c r="D286">
         <v>2</v>
@@ -5585,10 +5498,10 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>0.0010582264761549443</v>
+        <v>0.053182408970484325</v>
       </c>
       <c r="C287">
-        <v>0.99894177352384517</v>
+        <v>0.94681759102951568</v>
       </c>
       <c r="D287">
         <v>2</v>
@@ -5599,10 +5512,10 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>1.9121264116517267e-07</v>
+        <v>0</v>
       </c>
       <c r="C288">
-        <v>0.99999980878735883</v>
+        <v>1</v>
       </c>
       <c r="D288">
         <v>2</v>
@@ -5613,10 +5526,10 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>4.1417741089011528e-06</v>
+        <v>7.7347385888382192e-06</v>
       </c>
       <c r="C289">
-        <v>0.9999958582258911</v>
+        <v>0.99999226526141116</v>
       </c>
       <c r="D289">
         <v>2</v>
@@ -5627,10 +5540,10 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>8.5113771529754523e-05</v>
+        <v>3.3648639430339244e-12</v>
       </c>
       <c r="C290">
-        <v>0.99991488622847025</v>
+        <v>0.99999999999663514</v>
       </c>
       <c r="D290">
         <v>2</v>
@@ -5641,10 +5554,10 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>1.1828923965562232e-05</v>
+        <v>1.6383070728598348e-05</v>
       </c>
       <c r="C291">
-        <v>0.99998817107603444</v>
+        <v>0.9999836169292714</v>
       </c>
       <c r="D291">
         <v>2</v>
@@ -5655,10 +5568,10 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>1.8239625345750632e-05</v>
+        <v>1.9120514960224708e-07</v>
       </c>
       <c r="C292">
-        <v>0.99998176037465425</v>
+        <v>0.9999998087948504</v>
       </c>
       <c r="D292">
         <v>2</v>
@@ -5669,13 +5582,13 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>0.9679640999216218</v>
+        <v>7.2816752627602455e-08</v>
       </c>
       <c r="C293">
-        <v>0.032035900078378247</v>
+        <v>0.99999992718324737</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294">
@@ -5683,10 +5596,10 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>5.5797326861117824e-06</v>
+        <v>1.4535088688205633e-09</v>
       </c>
       <c r="C294">
-        <v>0.99999442026731389</v>
+        <v>0.99999999854649113</v>
       </c>
       <c r="D294">
         <v>2</v>
@@ -5697,10 +5610,10 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>0.0002429106909743739</v>
+        <v>8.6680887356749281e-08</v>
       </c>
       <c r="C295">
-        <v>0.99975708930902563</v>
+        <v>0.99999991331911264</v>
       </c>
       <c r="D295">
         <v>2</v>
@@ -5711,10 +5624,10 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>3.1428017323809065e-05</v>
+        <v>1.4535088688205633e-09</v>
       </c>
       <c r="C296">
-        <v>0.99996857198267619</v>
+        <v>0.99999999854649113</v>
       </c>
       <c r="D296">
         <v>2</v>
@@ -5725,10 +5638,10 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>2.085072640878316e-06</v>
+        <v>8.1372125704248788e-09</v>
       </c>
       <c r="C297">
-        <v>0.99999791492735912</v>
+        <v>0.99999999186278743</v>
       </c>
       <c r="D297">
         <v>2</v>
@@ -5739,10 +5652,10 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>1.3415590474741279e-05</v>
+        <v>1.2520647074687474e-08</v>
       </c>
       <c r="C298">
-        <v>0.99998658440952526</v>
+        <v>0.99999998747935293</v>
       </c>
       <c r="D298">
         <v>2</v>
@@ -5753,10 +5666,10 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>1.389768158632787e-05</v>
+        <v>3.6307543638258721e-09</v>
       </c>
       <c r="C299">
-        <v>0.99998610231841367</v>
+        <v>0.99999999636924564</v>
       </c>
       <c r="D299">
         <v>2</v>
@@ -5767,10 +5680,10 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>0.00011272770224157735</v>
+        <v>4.4433623447304171e-09</v>
       </c>
       <c r="C300">
-        <v>0.99988727229775842</v>
+        <v>0.99999999555663766</v>
       </c>
       <c r="D300">
         <v>2</v>
@@ -5781,10 +5694,10 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>1.6135804480121863e-05</v>
+        <v>2.2359242568548154e-08</v>
       </c>
       <c r="C301">
-        <v>0.99998386419551988</v>
+        <v>0.99999997764075743</v>
       </c>
       <c r="D301">
         <v>2</v>
@@ -5795,10 +5708,10 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>0.00035093750263270884</v>
+        <v>3.6307543638258721e-09</v>
       </c>
       <c r="C302">
-        <v>0.99964906249736729</v>
+        <v>0.99999999636924564</v>
       </c>
       <c r="D302">
         <v>2</v>
@@ -5809,10 +5722,10 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>2.0963602780366131e-06</v>
+        <v>9.0848401712806393e-05</v>
       </c>
       <c r="C303">
-        <v>0.99999790363972196</v>
+        <v>0.99990915159828719</v>
       </c>
       <c r="D303">
         <v>2</v>
@@ -5823,10 +5736,10 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>9.8442946589671898e-05</v>
+        <v>1.4713421592205121e-09</v>
       </c>
       <c r="C304">
-        <v>0.99990155705341033</v>
+        <v>0.99999999852865784</v>
       </c>
       <c r="D304">
         <v>2</v>
@@ -5837,10 +5750,10 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>4.3484131814208737e-06</v>
+        <v>0.00078212499994756446</v>
       </c>
       <c r="C305">
-        <v>0.99999565158681858</v>
+        <v>0.99921787500005244</v>
       </c>
       <c r="D305">
         <v>2</v>
@@ -5851,10 +5764,10 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>2.032606434609896e-05</v>
+        <v>1.6667372926271184e-08</v>
       </c>
       <c r="C306">
-        <v>0.9999796739356539</v>
+        <v>0.99999998333262707</v>
       </c>
       <c r="D306">
         <v>2</v>
@@ -5865,10 +5778,10 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>0.0062645049964394905</v>
+        <v>9.0848401712806393e-05</v>
       </c>
       <c r="C307">
-        <v>0.99373549500356051</v>
+        <v>0.99990915159828719</v>
       </c>
       <c r="D307">
         <v>2</v>
@@ -5879,13 +5792,13 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>0.86174445124159216</v>
+        <v>8.4568243963190084e-08</v>
       </c>
       <c r="C308">
-        <v>0.13825554875840793</v>
+        <v>0.99999991543175604</v>
       </c>
       <c r="D308">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -5893,10 +5806,10 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>0.00015730659139023828</v>
+        <v>8.4568243963190084e-08</v>
       </c>
       <c r="C309">
-        <v>0.99984269340860976</v>
+        <v>0.99999991543175604</v>
       </c>
       <c r="D309">
         <v>2</v>
@@ -5907,13 +5820,13 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>0.89596175453095972</v>
+        <v>0.00034666202621858044</v>
       </c>
       <c r="C310">
-        <v>0.10403824546904027</v>
+        <v>0.99965333797378142</v>
       </c>
       <c r="D310">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -5921,13 +5834,13 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>0.58767212455167317</v>
+        <v>8.1405726974903558e-06</v>
       </c>
       <c r="C311">
-        <v>0.41232787544832677</v>
+        <v>0.99999185942730251</v>
       </c>
       <c r="D311">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -5935,10 +5848,10 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>0.36850218212051822</v>
+        <v>0.010707776622540854</v>
       </c>
       <c r="C312">
-        <v>0.63149781787948178</v>
+        <v>0.98929222337745915</v>
       </c>
       <c r="D312">
         <v>2</v>
@@ -5949,10 +5862,10 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>0.0058437850078083553</v>
+        <v>2.382982700055436e-11</v>
       </c>
       <c r="C313">
-        <v>0.99415621499219164</v>
+        <v>0.99999999997617017</v>
       </c>
       <c r="D313">
         <v>2</v>
@@ -5963,10 +5876,10 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>0</v>
+        <v>0.00016047324668455598</v>
       </c>
       <c r="C314">
-        <v>1</v>
+        <v>0.99983952675331544</v>
       </c>
       <c r="D314">
         <v>2</v>
@@ -5977,10 +5890,10 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>0.0002109172526202352</v>
+        <v>1.2616908440232777e-07</v>
       </c>
       <c r="C315">
-        <v>0.99978908274737976</v>
+        <v>0.9999998738309156</v>
       </c>
       <c r="D315">
         <v>2</v>
@@ -5991,10 +5904,10 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>1.3357663863899914e-09</v>
+        <v>8.9409941428697515e-05</v>
       </c>
       <c r="C316">
-        <v>0.99999999866423361</v>
+        <v>0.9999105900585713</v>
       </c>
       <c r="D316">
         <v>2</v>
@@ -6005,10 +5918,10 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>0.00014029331729292771</v>
+        <v>9.2090199121930283e-07</v>
       </c>
       <c r="C317">
-        <v>0.99985970668270707</v>
+        <v>0.99999907909800878</v>
       </c>
       <c r="D317">
         <v>2</v>
@@ -6019,13 +5932,13 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>0.9999999999999778</v>
+        <v>2.382982700055436e-11</v>
       </c>
       <c r="C318">
-        <v>2.2204460492502639e-14</v>
+        <v>0.99999999997617017</v>
       </c>
       <c r="D318">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319">
@@ -6033,10 +5946,10 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>0.00031404867408024728</v>
+        <v>6.5840670721573069e-05</v>
       </c>
       <c r="C319">
-        <v>0.99968595132591975</v>
+        <v>0.99993415932927843</v>
       </c>
       <c r="D319">
         <v>2</v>
@@ -6047,10 +5960,10 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>7.1916924840875751e-05</v>
+        <v>4.4978796243100299e-08</v>
       </c>
       <c r="C320">
-        <v>0.99992808307515912</v>
+        <v>0.99999995502120376</v>
       </c>
       <c r="D320">
         <v>2</v>
@@ -6061,10 +5974,10 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>1.2819259578300546e-06</v>
+        <v>2.7240370070735764e-08</v>
       </c>
       <c r="C321">
-        <v>0.99999871807404217</v>
+        <v>0.99999997275962993</v>
       </c>
       <c r="D321">
         <v>2</v>
@@ -6075,10 +5988,10 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>2.8822989220800288e-05</v>
+        <v>1.4553853677767847e-08</v>
       </c>
       <c r="C322">
-        <v>0.9999711770107792</v>
+        <v>0.99999998544614632</v>
       </c>
       <c r="D322">
         <v>2</v>
@@ -6089,10 +6002,10 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>1.2819259578300546e-06</v>
+        <v>0.00010576171025844516</v>
       </c>
       <c r="C323">
-        <v>0.99999871807404217</v>
+        <v>0.99989423828974155</v>
       </c>
       <c r="D323">
         <v>2</v>
@@ -6103,10 +6016,10 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>4.4804736220038777e-06</v>
+        <v>6.7386213921105656e-06</v>
       </c>
       <c r="C324">
-        <v>0.999995519526378</v>
+        <v>0.99999326137860789</v>
       </c>
       <c r="D324">
         <v>2</v>
@@ -6117,10 +6030,10 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>6.7654837187736128e-05</v>
+        <v>2.382982700055436e-11</v>
       </c>
       <c r="C325">
-        <v>0.99993234516281226</v>
+        <v>0.99999999997617017</v>
       </c>
       <c r="D325">
         <v>2</v>
@@ -6131,10 +6044,10 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>2.9408939310471283e-06</v>
+        <v>2.382982700055436e-11</v>
       </c>
       <c r="C326">
-        <v>0.99999705910606895</v>
+        <v>0.99999999997617017</v>
       </c>
       <c r="D326">
         <v>2</v>
@@ -6145,10 +6058,10 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>2.0451298600177026e-06</v>
+        <v>4.790590146797058e-11</v>
       </c>
       <c r="C327">
-        <v>0.99999795487013998</v>
+        <v>0.9999999999520941</v>
       </c>
       <c r="D327">
         <v>2</v>
@@ -6159,10 +6072,10 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>6.6589711468223447e-06</v>
+        <v>4.790590146797058e-11</v>
       </c>
       <c r="C328">
-        <v>0.99999334102885318</v>
+        <v>0.9999999999520941</v>
       </c>
       <c r="D328">
         <v>2</v>
@@ -6173,10 +6086,10 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>2.9408939310471283e-06</v>
+        <v>9.540897605297971e-08</v>
       </c>
       <c r="C329">
-        <v>0.99999705910606895</v>
+        <v>0.99999990459102395</v>
       </c>
       <c r="D329">
         <v>2</v>
@@ -6187,10 +6100,10 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>0.001911611079980835</v>
+        <v>7.3272256257972401e-06</v>
       </c>
       <c r="C330">
-        <v>0.99808838892001916</v>
+        <v>0.9999926727743742</v>
       </c>
       <c r="D330">
         <v>2</v>
@@ -6201,10 +6114,10 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>1.0516595156939701e-06</v>
+        <v>0.0009781301172471224</v>
       </c>
       <c r="C331">
-        <v>0.99999894834048431</v>
+        <v>0.99902186988275288</v>
       </c>
       <c r="D331">
         <v>2</v>
@@ -6215,10 +6128,10 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>0.0033113795907745436</v>
+        <v>8.9792538284783063e-06</v>
       </c>
       <c r="C332">
-        <v>0.99668862040922546</v>
+        <v>0.99999102074617152</v>
       </c>
       <c r="D332">
         <v>2</v>
@@ -6229,10 +6142,10 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>1.6371981771401423e-06</v>
+        <v>1.2022515077036999e-05</v>
       </c>
       <c r="C333">
-        <v>0.99999836280182286</v>
+        <v>0.99998797748492296</v>
       </c>
       <c r="D333">
         <v>2</v>
@@ -6243,10 +6156,10 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>0.001911611079980835</v>
+        <v>2.5326336103859148e-06</v>
       </c>
       <c r="C334">
-        <v>0.99808838892001916</v>
+        <v>0.99999746736638961</v>
       </c>
       <c r="D334">
         <v>2</v>
@@ -6257,10 +6170,10 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>3.7701375009802085e-05</v>
+        <v>9.0848401712806393e-05</v>
       </c>
       <c r="C335">
-        <v>0.9999622986249902</v>
+        <v>0.99990915159828719</v>
       </c>
       <c r="D335">
         <v>2</v>
@@ -6271,10 +6184,10 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>3.7701375009802085e-05</v>
+        <v>0.00041069285212691486</v>
       </c>
       <c r="C336">
-        <v>0.9999622986249902</v>
+        <v>0.99958930714787309</v>
       </c>
       <c r="D336">
         <v>2</v>
@@ -6285,10 +6198,10 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>0.0080798937525270453</v>
+        <v>0.0024058557138922909</v>
       </c>
       <c r="C337">
-        <v>0.99192010624747295</v>
+        <v>0.99759414428610771</v>
       </c>
       <c r="D337">
         <v>2</v>
@@ -6299,10 +6212,10 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>0.00015140413904091155</v>
+        <v>9.0848401712806393e-05</v>
       </c>
       <c r="C338">
-        <v>0.99984859586095909</v>
+        <v>0.99990915159828719</v>
       </c>
       <c r="D338">
         <v>2</v>
@@ -6313,10 +6226,10 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>0.029649884872444687</v>
+        <v>2.4490748391614581e-05</v>
       </c>
       <c r="C339">
-        <v>0.97035011512755531</v>
+        <v>0.99997550925160839</v>
       </c>
       <c r="D339">
         <v>2</v>
@@ -6327,10 +6240,10 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>1.0099038605382304e-08</v>
+        <v>2.382982700055436e-11</v>
       </c>
       <c r="C340">
-        <v>0.99999998990096139</v>
+        <v>0.99999999997617017</v>
       </c>
       <c r="D340">
         <v>2</v>
@@ -6341,10 +6254,10 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>0.003323035056287726</v>
+        <v>2.382982700055436e-11</v>
       </c>
       <c r="C341">
-        <v>0.99667696494371227</v>
+        <v>0.99999999997617017</v>
       </c>
       <c r="D341">
         <v>2</v>
@@ -6355,10 +6268,10 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>4.1818378853530902e-05</v>
+        <v>2.382982700055436e-11</v>
       </c>
       <c r="C342">
-        <v>0.99995818162114647</v>
+        <v>0.99999999997617017</v>
       </c>
       <c r="D342">
         <v>2</v>
@@ -6369,10 +6282,10 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>0.00014551782911786937</v>
+        <v>1.4713421592205121e-09</v>
       </c>
       <c r="C343">
-        <v>0.99985448217088213</v>
+        <v>0.99999999852865784</v>
       </c>
       <c r="D343">
         <v>2</v>
@@ -6383,10 +6296,10 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>0.00023196007837611443</v>
+        <v>3.8425890358517734e-07</v>
       </c>
       <c r="C344">
-        <v>0.99976803992162389</v>
+        <v>0.99999961574109641</v>
       </c>
       <c r="D344">
         <v>2</v>
@@ -6397,10 +6310,10 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>1.0099038605382304e-08</v>
+        <v>7.7278989207840709e-08</v>
       </c>
       <c r="C345">
-        <v>0.99999998990096139</v>
+        <v>0.99999992272101079</v>
       </c>
       <c r="D345">
         <v>2</v>
@@ -6411,10 +6324,10 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>0.00016006968630499774</v>
+        <v>3.3535352494951098e-08</v>
       </c>
       <c r="C346">
-        <v>0.999839930313695</v>
+        <v>0.99999996646464751</v>
       </c>
       <c r="D346">
         <v>2</v>
@@ -6425,10 +6338,10 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>1.8312386744434583e-05</v>
+        <v>3.6307543638258721e-09</v>
       </c>
       <c r="C347">
-        <v>0.99998168761325557</v>
+        <v>0.99999999636924564</v>
       </c>
       <c r="D347">
         <v>2</v>
@@ -6439,10 +6352,10 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>1.2646798928650504e-05</v>
+        <v>0.0006701656520892163</v>
       </c>
       <c r="C348">
-        <v>0.99998735320107135</v>
+        <v>0.99932983434791078</v>
       </c>
       <c r="D348">
         <v>2</v>
@@ -6453,10 +6366,10 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>9.470536770472826e-06</v>
+        <v>4.4978796243100299e-08</v>
       </c>
       <c r="C349">
-        <v>0.99999052946322953</v>
+        <v>0.99999995502120376</v>
       </c>
       <c r="D349">
         <v>2</v>
@@ -6467,10 +6380,10 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>0.00092272099358980952</v>
+        <v>1.535090454751753e-08</v>
       </c>
       <c r="C350">
-        <v>0.99907727900641019</v>
+        <v>0.99999998464909545</v>
       </c>
       <c r="D350">
         <v>2</v>
@@ -6481,10 +6394,10 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>0.00016827834267973962</v>
+        <v>9.0848401712806393e-05</v>
       </c>
       <c r="C351">
-        <v>0.99983172165732026</v>
+        <v>0.99990915159828719</v>
       </c>
       <c r="D351">
         <v>2</v>
@@ -6495,10 +6408,10 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>1.0099038605382304e-08</v>
+        <v>4.4978796243100299e-08</v>
       </c>
       <c r="C352">
-        <v>0.99999998990096139</v>
+        <v>0.99999995502120376</v>
       </c>
       <c r="D352">
         <v>2</v>
@@ -6509,10 +6422,10 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>1.0099038605382304e-08</v>
+        <v>4.4978796243100299e-08</v>
       </c>
       <c r="C353">
-        <v>0.99999998990096139</v>
+        <v>0.99999995502120376</v>
       </c>
       <c r="D353">
         <v>2</v>
@@ -6523,10 +6436,10 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>1.7772808669214157e-08</v>
+        <v>3.6307543638258721e-09</v>
       </c>
       <c r="C354">
-        <v>0.99999998222719133</v>
+        <v>0.99999999636924564</v>
       </c>
       <c r="D354">
         <v>2</v>
@@ -6537,10 +6450,10 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>1.7772808669214157e-08</v>
+        <v>1.1439982030347904e-05</v>
       </c>
       <c r="C355">
-        <v>0.99999998222719133</v>
+        <v>0.99998856001796965</v>
       </c>
       <c r="D355">
         <v>2</v>
@@ -6551,10 +6464,10 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>2.2828807248687077e-05</v>
+        <v>9.2090199121930283e-07</v>
       </c>
       <c r="C356">
-        <v>0.99997717119275131</v>
+        <v>0.99999907909800878</v>
       </c>
       <c r="D356">
         <v>2</v>
@@ -6565,10 +6478,10 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>0.0001401301526952059</v>
+        <v>7.4534618721422419e-07</v>
       </c>
       <c r="C357">
-        <v>0.99985986984730479</v>
+        <v>0.99999925465381279</v>
       </c>
       <c r="D357">
         <v>2</v>
@@ -6579,10 +6492,10 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>0.018159934362147467</v>
+        <v>4.1710310760834091e-09</v>
       </c>
       <c r="C358">
-        <v>0.98184006563785253</v>
+        <v>0.99999999582896892</v>
       </c>
       <c r="D358">
         <v>2</v>
@@ -6593,10 +6506,10 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>0.00030807470024907246</v>
+        <v>1.4713421592205121e-09</v>
       </c>
       <c r="C359">
-        <v>0.99969192529975093</v>
+        <v>0.99999999852865784</v>
       </c>
       <c r="D359">
         <v>2</v>
@@ -6607,10 +6520,10 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>0.00012563134572929346</v>
+        <v>9.0848401712806393e-05</v>
       </c>
       <c r="C360">
-        <v>0.99987436865427071</v>
+        <v>0.99990915159828719</v>
       </c>
       <c r="D360">
         <v>2</v>
@@ -6621,10 +6534,10 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>6.1762647494356671e-05</v>
+        <v>6.5509386469875253e-06</v>
       </c>
       <c r="C361">
-        <v>0.99993823735250564</v>
+        <v>0.99999344906135301</v>
       </c>
       <c r="D361">
         <v>2</v>
@@ -6635,10 +6548,10 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>0.001911611079980835</v>
+        <v>3.212937312979669e-06</v>
       </c>
       <c r="C362">
-        <v>0.99808838892001916</v>
+        <v>0.99999678706268702</v>
       </c>
       <c r="D362">
         <v>2</v>
@@ -6649,10 +6562,10 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>0.0055643443294172146</v>
+        <v>0.00034666202621858044</v>
       </c>
       <c r="C363">
-        <v>0.99443565567058279</v>
+        <v>0.99965333797378142</v>
       </c>
       <c r="D363">
         <v>2</v>
@@ -6663,10 +6576,10 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>0.015574509315181673</v>
+        <v>2.382982700055436e-11</v>
       </c>
       <c r="C364">
-        <v>0.98442549068481833</v>
+        <v>0.99999999997617017</v>
       </c>
       <c r="D364">
         <v>2</v>
@@ -6677,10 +6590,10 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>0.001911611079980835</v>
+        <v>2.382982700055436e-11</v>
       </c>
       <c r="C365">
-        <v>0.99808838892001916</v>
+        <v>0.99999999997617017</v>
       </c>
       <c r="D365">
         <v>2</v>
@@ -6691,10 +6604,10 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>0.00036932397647959636</v>
+        <v>8.4568243963190084e-08</v>
       </c>
       <c r="C366">
-        <v>0.9996306760235204</v>
+        <v>0.99999991543175604</v>
       </c>
       <c r="D366">
         <v>2</v>
@@ -6705,10 +6618,10 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>1.0099038605382304e-08</v>
+        <v>4.790590146797058e-11</v>
       </c>
       <c r="C367">
-        <v>0.99999998990096139</v>
+        <v>0.9999999999520941</v>
       </c>
       <c r="D367">
         <v>2</v>
@@ -6719,10 +6632,10 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>1.0099038605382304e-08</v>
+        <v>2.382982700055436e-11</v>
       </c>
       <c r="C368">
-        <v>0.99999998990096139</v>
+        <v>0.99999999997617017</v>
       </c>
       <c r="D368">
         <v>2</v>
@@ -6733,10 +6646,10 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>1.0099038605382304e-08</v>
+        <v>3.6307543638258721e-09</v>
       </c>
       <c r="C369">
-        <v>0.99999998990096139</v>
+        <v>0.99999999636924564</v>
       </c>
       <c r="D369">
         <v>2</v>
@@ -6747,10 +6660,10 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>1.0516595156939701e-06</v>
+        <v>9.6351092659929805e-09</v>
       </c>
       <c r="C370">
-        <v>0.99999894834048431</v>
+        <v>0.99999999036489073</v>
       </c>
       <c r="D370">
         <v>2</v>
@@ -6761,10 +6674,10 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>2.1966056462874306e-05</v>
+        <v>9.0848401712806393e-05</v>
       </c>
       <c r="C371">
-        <v>0.99997803394353713</v>
+        <v>0.99990915159828719</v>
       </c>
       <c r="D371">
         <v>2</v>
@@ -6775,10 +6688,10 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>5.669284322662449e-06</v>
+        <v>3.6307543638258721e-09</v>
       </c>
       <c r="C372">
-        <v>0.99999433071567734</v>
+        <v>0.99999999636924564</v>
       </c>
       <c r="D372">
         <v>2</v>
@@ -6789,10 +6702,10 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>1.1312659012330251e-05</v>
+        <v>6.4780758535221139e-10</v>
       </c>
       <c r="C373">
-        <v>0.99998868734098767</v>
+        <v>0.99999999935219241</v>
       </c>
       <c r="D373">
         <v>2</v>
@@ -6803,10 +6716,10 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>2.9408939310471283e-06</v>
+        <v>1.6459461349427329e-08</v>
       </c>
       <c r="C374">
-        <v>0.99999705910606895</v>
+        <v>0.99999998354053865</v>
       </c>
       <c r="D374">
         <v>2</v>
@@ -6817,10 +6730,10 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>0.0045812207728689325</v>
+        <v>2.3733770504463791e-10</v>
       </c>
       <c r="C375">
-        <v>0.99541877922713107</v>
+        <v>0.99999999976266229</v>
       </c>
       <c r="D375">
         <v>2</v>
@@ -6831,10 +6744,10 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>1.8312386744434583e-05</v>
+        <v>1.1373805817171956e-06</v>
       </c>
       <c r="C376">
-        <v>0.99998168761325557</v>
+        <v>0.99999886261941828</v>
       </c>
       <c r="D376">
         <v>2</v>
@@ -6845,10 +6758,10 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>5.8950078727360022e-06</v>
+        <v>9.0848401712806393e-05</v>
       </c>
       <c r="C377">
-        <v>0.99999410499212726</v>
+        <v>0.99990915159828719</v>
       </c>
       <c r="D377">
         <v>2</v>
@@ -6859,10 +6772,10 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>0.001911611079980835</v>
+        <v>0.0068603661136170668</v>
       </c>
       <c r="C378">
-        <v>0.99808838892001916</v>
+        <v>0.99313963388638293</v>
       </c>
       <c r="D378">
         <v>2</v>
@@ -6873,10 +6786,10 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>1.8312386744434583e-05</v>
+        <v>1.9385123817272643e-07</v>
       </c>
       <c r="C379">
-        <v>0.99998168761325557</v>
+        <v>0.99999980614876183</v>
       </c>
       <c r="D379">
         <v>2</v>
@@ -6887,10 +6800,10 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>1.8312386744434583e-05</v>
+        <v>1.833622143010416e-09</v>
       </c>
       <c r="C380">
-        <v>0.99998168761325557</v>
+        <v>0.99999999816637786</v>
       </c>
       <c r="D380">
         <v>2</v>
@@ -6901,10 +6814,10 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>2.9408939310471283e-06</v>
+        <v>1.4975312767617766e-08</v>
       </c>
       <c r="C381">
-        <v>0.99999705910606895</v>
+        <v>0.99999998502468723</v>
       </c>
       <c r="D381">
         <v>2</v>
@@ -6915,10 +6828,10 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>0.00098309870597612647</v>
+        <v>4.9168802362942188e-10</v>
       </c>
       <c r="C382">
-        <v>0.99901690129402387</v>
+        <v>0.99999999950831198</v>
       </c>
       <c r="D382">
         <v>2</v>
@@ -6929,10 +6842,10 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>0.00023196007837611443</v>
+        <v>2.382982700055436e-11</v>
       </c>
       <c r="C383">
-        <v>0.99976803992162389</v>
+        <v>0.99999999997617017</v>
       </c>
       <c r="D383">
         <v>2</v>
@@ -6943,10 +6856,10 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>2.9851022659177495e-05</v>
+        <v>6.4637116914401105e-07</v>
       </c>
       <c r="C384">
-        <v>0.99997014897734082</v>
+        <v>0.99999935362883086</v>
       </c>
       <c r="D384">
         <v>2</v>
@@ -6957,10 +6870,10 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>1.4809924560044152e-06</v>
+        <v>8.4568243963190084e-08</v>
       </c>
       <c r="C385">
-        <v>0.999998519007544</v>
+        <v>0.99999991543175604</v>
       </c>
       <c r="D385">
         <v>2</v>
@@ -6971,10 +6884,10 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>1.0516595156939701e-06</v>
+        <v>2.0388472021792836e-08</v>
       </c>
       <c r="C386">
-        <v>0.99999894834048431</v>
+        <v>0.99999997961152798</v>
       </c>
       <c r="D386">
         <v>2</v>
@@ -6985,10 +6898,10 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>0.001911611079980835</v>
+        <v>8.4568243963190084e-08</v>
       </c>
       <c r="C387">
-        <v>0.99808838892001916</v>
+        <v>0.99999991543175604</v>
       </c>
       <c r="D387">
         <v>2</v>
@@ -6999,10 +6912,10 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>0.00046610218085030297</v>
+        <v>1.535096270099956e-07</v>
       </c>
       <c r="C388">
-        <v>0.9995338978191497</v>
+        <v>0.99999984649037299</v>
       </c>
       <c r="D388">
         <v>2</v>
@@ -7013,10 +6926,10 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>9.1627519990811201e-05</v>
+        <v>9.0848401712806393e-05</v>
       </c>
       <c r="C389">
-        <v>0.99990837248000919</v>
+        <v>0.99990915159828719</v>
       </c>
       <c r="D389">
         <v>2</v>
@@ -7027,10 +6940,10 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>0.0080798937525270453</v>
+        <v>9.0848401712806393e-05</v>
       </c>
       <c r="C390">
-        <v>0.99192010624747295</v>
+        <v>0.99990915159828719</v>
       </c>
       <c r="D390">
         <v>2</v>
@@ -7041,10 +6954,10 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>1.0099038605382304e-08</v>
+        <v>3.212937312979669e-06</v>
       </c>
       <c r="C391">
-        <v>0.99999998990096139</v>
+        <v>0.99999678706268702</v>
       </c>
       <c r="D391">
         <v>2</v>
@@ -7055,10 +6968,10 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>1.0099038605382304e-08</v>
+        <v>1.1177696435105132e-08</v>
       </c>
       <c r="C392">
-        <v>0.99999998990096139</v>
+        <v>0.99999998882230356</v>
       </c>
       <c r="D392">
         <v>2</v>
@@ -7069,10 +6982,10 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>3.7701375009802085e-05</v>
+        <v>1.4553853677767847e-08</v>
       </c>
       <c r="C393">
-        <v>0.9999622986249902</v>
+        <v>0.99999998544614632</v>
       </c>
       <c r="D393">
         <v>2</v>
@@ -7083,10 +6996,10 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>1.7772808669214157e-08</v>
+        <v>0.00041069285212691486</v>
       </c>
       <c r="C394">
-        <v>0.99999998222719133</v>
+        <v>0.99958930714787309</v>
       </c>
       <c r="D394">
         <v>2</v>
@@ -7097,10 +7010,10 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>1.0099038605382304e-08</v>
+        <v>8.4568243963190084e-08</v>
       </c>
       <c r="C395">
-        <v>0.99999998990096139</v>
+        <v>0.99999991543175604</v>
       </c>
       <c r="D395">
         <v>2</v>
@@ -7111,10 +7024,10 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>2.9408939310471283e-06</v>
+        <v>1.4713421592205121e-09</v>
       </c>
       <c r="C396">
-        <v>0.99999705910606895</v>
+        <v>0.99999999852865784</v>
       </c>
       <c r="D396">
         <v>2</v>
@@ -7125,10 +7038,10 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>1.9191712523625171e-06</v>
+        <v>8.4568243963190084e-08</v>
       </c>
       <c r="C397">
-        <v>0.99999808082874764</v>
+        <v>0.99999991543175604</v>
       </c>
       <c r="D397">
         <v>2</v>
@@ -7139,10 +7052,10 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>0.001911611079980835</v>
+        <v>4.790590146797058e-11</v>
       </c>
       <c r="C398">
-        <v>0.99808838892001916</v>
+        <v>0.9999999999520941</v>
       </c>
       <c r="D398">
         <v>2</v>
@@ -7153,10 +7066,10 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>2.9408939310471283e-06</v>
+        <v>5.3746274097932201e-09</v>
       </c>
       <c r="C399">
-        <v>0.99999705910606895</v>
+        <v>0.99999999462537259</v>
       </c>
       <c r="D399">
         <v>2</v>
@@ -7167,10 +7080,10 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>6.2457592342468615e-07</v>
+        <v>1.8121767249024145e-06</v>
       </c>
       <c r="C400">
-        <v>0.99999937542407658</v>
+        <v>0.9999981878232751</v>
       </c>
       <c r="D400">
         <v>2</v>
@@ -7181,13 +7094,13 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>2.122233466850254e-06</v>
+        <v>0.96832103188575114</v>
       </c>
       <c r="C401">
-        <v>0.99999787776653315</v>
+        <v>0.031678968114248841</v>
       </c>
       <c r="D401">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -7195,10 +7108,10 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>1.8347280550390366e-07</v>
+        <v>4.3914857077442804e-06</v>
       </c>
       <c r="C402">
-        <v>0.9999998165271945</v>
+        <v>0.99999560851429226</v>
       </c>
       <c r="D402">
         <v>2</v>
@@ -7209,10 +7122,10 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>4.213917938189482e-05</v>
+        <v>8.3793969452017336e-07</v>
       </c>
       <c r="C403">
-        <v>0.99995786082061811</v>
+        <v>0.99999916206030548</v>
       </c>
       <c r="D403">
         <v>2</v>
@@ -7223,10 +7136,10 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>0.001911611079980835</v>
+        <v>1.9331826306423494e-07</v>
       </c>
       <c r="C404">
-        <v>0.99808838892001916</v>
+        <v>0.99999980668173694</v>
       </c>
       <c r="D404">
         <v>2</v>
@@ -7237,13 +7150,13 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>0.035125951374625819</v>
+        <v>0.9847149443444897</v>
       </c>
       <c r="C405">
-        <v>0.96487404862537429</v>
+        <v>0.015285055655510339</v>
       </c>
       <c r="D405">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -7251,10 +7164,10 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>9.9977929924888187e-06</v>
+        <v>8.3793969452017336e-07</v>
       </c>
       <c r="C406">
-        <v>0.99999000220700751</v>
+        <v>0.99999916206030548</v>
       </c>
       <c r="D406">
         <v>2</v>
@@ -7265,10 +7178,10 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>5.0765426562460192e-07</v>
+        <v>1.3874355220266921e-08</v>
       </c>
       <c r="C407">
-        <v>0.99999949234573438</v>
+        <v>0.99999998612564478</v>
       </c>
       <c r="D407">
         <v>2</v>
@@ -7279,10 +7192,10 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>5.684757705126664e-06</v>
+        <v>6.5785107694615874e-08</v>
       </c>
       <c r="C408">
-        <v>0.99999431524229487</v>
+        <v>0.99999993421489231</v>
       </c>
       <c r="D408">
         <v>2</v>
@@ -7293,10 +7206,10 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>2.068811553179728e-07</v>
+        <v>4.6886957205671826e-08</v>
       </c>
       <c r="C409">
-        <v>0.99999979311884468</v>
+        <v>0.99999995311304279</v>
       </c>
       <c r="D409">
         <v>2</v>
@@ -7307,10 +7220,10 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>1.0099038605382304e-08</v>
+        <v>2.3822251364880032e-06</v>
       </c>
       <c r="C410">
-        <v>0.99999998990096139</v>
+        <v>0.99999761777486351</v>
       </c>
       <c r="D410">
         <v>2</v>
@@ -7321,10 +7234,10 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>2.6906504842716398e-05</v>
+        <v>3.9560742415289951e-07</v>
       </c>
       <c r="C411">
-        <v>0.99997309349515728</v>
+        <v>0.99999960439257585</v>
       </c>
       <c r="D411">
         <v>2</v>
@@ -7335,10 +7248,10 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>3.7701375009802085e-05</v>
+        <v>3.3492477014007704e-08</v>
       </c>
       <c r="C412">
-        <v>0.9999622986249902</v>
+        <v>0.99999996650752299</v>
       </c>
       <c r="D412">
         <v>2</v>
@@ -7349,13 +7262,13 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>2.9892371080642022e-06</v>
+        <v>0.97931537706635252</v>
       </c>
       <c r="C413">
-        <v>0.99999701076289194</v>
+        <v>0.020684622933647447</v>
       </c>
       <c r="D413">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -7363,13 +7276,13 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>3.7701375009802085e-05</v>
+        <v>0.99967117903080371</v>
       </c>
       <c r="C414">
-        <v>0.9999622986249902</v>
+        <v>0.0003288209691962401</v>
       </c>
       <c r="D414">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -7377,13 +7290,13 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>1.1474821001278281e-05</v>
+        <v>0.98292876923769146</v>
       </c>
       <c r="C415">
-        <v>0.99998852517899872</v>
+        <v>0.017071230762308588</v>
       </c>
       <c r="D415">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -7391,10 +7304,10 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>0.001911611079980835</v>
+        <v>6.8075451942206655e-09</v>
       </c>
       <c r="C416">
-        <v>0.99808838892001916</v>
+        <v>0.99999999319245481</v>
       </c>
       <c r="D416">
         <v>2</v>
@@ -7405,13 +7318,13 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>0.001911611079980835</v>
+        <v>0.97924025049933505</v>
       </c>
       <c r="C417">
-        <v>0.99808838892001916</v>
+        <v>0.020759749500664993</v>
       </c>
       <c r="D417">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -7419,13 +7332,13 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>9.1627519990811201e-05</v>
+        <v>0.97104475766686282</v>
       </c>
       <c r="C418">
-        <v>0.99990837248000919</v>
+        <v>0.028955242333137159</v>
       </c>
       <c r="D418">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -7433,10 +7346,10 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>8.1882546444367321e-06</v>
+        <v>1.9344186252823192e-09</v>
       </c>
       <c r="C419">
-        <v>0.99999181174535556</v>
+        <v>0.99999999806558137</v>
       </c>
       <c r="D419">
         <v>2</v>
@@ -7447,10 +7360,10 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>9.470536770472826e-06</v>
+        <v>1.3384471084787464e-06</v>
       </c>
       <c r="C420">
-        <v>0.99999052946322953</v>
+        <v>0.99999866155289152</v>
       </c>
       <c r="D420">
         <v>2</v>
@@ -7461,10 +7374,10 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>0.0055643443294172146</v>
+        <v>1.9344186252823192e-09</v>
       </c>
       <c r="C421">
-        <v>0.99443565567058279</v>
+        <v>0.99999999806558137</v>
       </c>
       <c r="D421">
         <v>2</v>
@@ -7475,10 +7388,10 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>3.7701375009802085e-05</v>
+        <v>1.9232415660042079e-09</v>
       </c>
       <c r="C422">
-        <v>0.9999622986249902</v>
+        <v>0.99999999807675843</v>
       </c>
       <c r="D422">
         <v>2</v>
@@ -7489,10 +7402,10 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>1.0516595156939701e-06</v>
+        <v>2.1767953894968883e-07</v>
       </c>
       <c r="C423">
-        <v>0.99999894834048431</v>
+        <v>0.99999978232046105</v>
       </c>
       <c r="D423">
         <v>2</v>
@@ -7503,10 +7416,10 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>3.7701375009802085e-05</v>
+        <v>2.1825838932842956e-06</v>
       </c>
       <c r="C424">
-        <v>0.9999622986249902</v>
+        <v>0.99999781741610672</v>
       </c>
       <c r="D424">
         <v>2</v>
@@ -7517,13 +7430,13 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>1.7772808669214157e-08</v>
+        <v>0.99827928017056455</v>
       </c>
       <c r="C425">
-        <v>0.99999998222719133</v>
+        <v>0.0017207198294354137</v>
       </c>
       <c r="D425">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -7531,10 +7444,10 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>6.6478579163753437e-07</v>
+        <v>3.1171574987887141e-08</v>
       </c>
       <c r="C426">
-        <v>0.99999933521420836</v>
+        <v>0.99999996882842501</v>
       </c>
       <c r="D426">
         <v>2</v>
@@ -7545,10 +7458,10 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>7.1871639842679969e-05</v>
+        <v>6.6129524078917267e-10</v>
       </c>
       <c r="C427">
-        <v>0.99992812836015732</v>
+        <v>0.99999999933870476</v>
       </c>
       <c r="D427">
         <v>2</v>
@@ -7559,10 +7472,10 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>0.03253253138339629</v>
+        <v>9.886905625422493e-06</v>
       </c>
       <c r="C428">
-        <v>0.96746746861660371</v>
+        <v>0.99999011309437458</v>
       </c>
       <c r="D428">
         <v>2</v>
@@ -7573,10 +7486,10 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>0.0001641733012519575</v>
+        <v>1.2896892154223849e-07</v>
       </c>
       <c r="C429">
-        <v>0.99983582669874804</v>
+        <v>0.99999987103107846</v>
       </c>
       <c r="D429">
         <v>2</v>
@@ -7587,13 +7500,13 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>6.7176222722009626e-05</v>
+        <v>0.99942079508689008</v>
       </c>
       <c r="C430">
-        <v>0.99993282377727799</v>
+        <v>0.00057920491310995987</v>
       </c>
       <c r="D430">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -7601,10 +7514,10 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>1.0924343401219616e-05</v>
+        <v>2.8645020899054074e-05</v>
       </c>
       <c r="C431">
-        <v>0.99998907565659878</v>
+        <v>0.99997135497910095</v>
       </c>
       <c r="D431">
         <v>2</v>
@@ -7615,10 +7528,10 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>0.17112627308480166</v>
+        <v>3.0338746570546249e-07</v>
       </c>
       <c r="C432">
-        <v>0.82887372691519834</v>
+        <v>0.99999969661253429</v>
       </c>
       <c r="D432">
         <v>2</v>
@@ -7629,13 +7542,13 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>6.7176222722009626e-05</v>
+        <v>0.98909625482733798</v>
       </c>
       <c r="C433">
-        <v>0.99993282377727799</v>
+        <v>0.010903745172662026</v>
       </c>
       <c r="D433">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -7643,13 +7556,13 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>1.7165708380284528e-06</v>
+        <v>0.95042175889643321</v>
       </c>
       <c r="C434">
-        <v>0.99999828342916197</v>
+        <v>0.049578241103566872</v>
       </c>
       <c r="D434">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -7657,13 +7570,13 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>5.3455140798241985e-06</v>
+        <v>0.99684989751808706</v>
       </c>
       <c r="C435">
-        <v>0.99999465448592018</v>
+        <v>0.0031501024819129185</v>
       </c>
       <c r="D435">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -7671,10 +7584,10 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>4.3858995535384082e-06</v>
+        <v>2.0868603340939984e-06</v>
       </c>
       <c r="C436">
-        <v>0.99999561410044646</v>
+        <v>0.99999791313966591</v>
       </c>
       <c r="D436">
         <v>2</v>
@@ -7685,10 +7598,10 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>8.891432978908044e-05</v>
+        <v>1.8705065840673996e-07</v>
       </c>
       <c r="C437">
-        <v>0.99991108567021092</v>
+        <v>0.99999981294934159</v>
       </c>
       <c r="D437">
         <v>2</v>
@@ -7699,10 +7612,10 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>1.0203748970649684e-05</v>
+        <v>8.9019292068837075e-06</v>
       </c>
       <c r="C438">
-        <v>0.99998979625102935</v>
+        <v>0.99999109807079312</v>
       </c>
       <c r="D438">
         <v>2</v>
@@ -7713,10 +7626,10 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>2.9345553219650711e-06</v>
+        <v>1.8698283970053353e-06</v>
       </c>
       <c r="C439">
-        <v>0.99999706544467803</v>
+        <v>0.99999813017160299</v>
       </c>
       <c r="D439">
         <v>2</v>
@@ -7727,10 +7640,10 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>0.32002675166957184</v>
+        <v>1.9258829884072348e-05</v>
       </c>
       <c r="C440">
-        <v>0.67997324833042816</v>
+        <v>0.99998074117011593</v>
       </c>
       <c r="D440">
         <v>2</v>
@@ -7741,13 +7654,13 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>0.64580802689612593</v>
+        <v>1.3172465340716146e-09</v>
       </c>
       <c r="C441">
-        <v>0.35419197310387407</v>
+        <v>0.99999999868275347</v>
       </c>
       <c r="D441">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442">
@@ -7755,13 +7668,13 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>0.30197778089390981</v>
+        <v>0.74328655401244781</v>
       </c>
       <c r="C442">
-        <v>0.69802221910609019</v>
+        <v>0.25671344598755219</v>
       </c>
       <c r="D442">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -7769,10 +7682,10 @@
         <v>442</v>
       </c>
       <c r="B443">
-        <v>1.2516230765147185e-06</v>
+        <v>1.3172465340716146e-09</v>
       </c>
       <c r="C443">
-        <v>0.99999874837692349</v>
+        <v>0.99999999868275347</v>
       </c>
       <c r="D443">
         <v>2</v>
@@ -7783,10 +7696,10 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>0.49315204164735726</v>
+        <v>6.9537359473903493e-06</v>
       </c>
       <c r="C444">
-        <v>0.50684795835264274</v>
+        <v>0.99999304626405261</v>
       </c>
       <c r="D444">
         <v>2</v>
@@ -7797,10 +7710,10 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>0.3275849520903501</v>
+        <v>3.004499179448672e-07</v>
       </c>
       <c r="C445">
-        <v>0.6724150479096499</v>
+        <v>0.99999969955008206</v>
       </c>
       <c r="D445">
         <v>2</v>
@@ -7811,13 +7724,13 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>2.670104748414559e-07</v>
+        <v>0.84259961506859882</v>
       </c>
       <c r="C446">
-        <v>0.99999973298952516</v>
+        <v>0.15740038493140115</v>
       </c>
       <c r="D446">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -7825,10 +7738,10 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>4.0645260905969316e-05</v>
+        <v>6.6861293979147973e-07</v>
       </c>
       <c r="C447">
-        <v>0.99995935473909403</v>
+        <v>0.99999933138706021</v>
       </c>
       <c r="D447">
         <v>2</v>
@@ -7839,10 +7752,10 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>2.670104748414559e-07</v>
+        <v>4.5571391105170278e-10</v>
       </c>
       <c r="C448">
-        <v>0.99999973298952516</v>
+        <v>0.99999999954428609</v>
       </c>
       <c r="D448">
         <v>2</v>
@@ -7853,10 +7766,10 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>2.6596196611716749e-07</v>
+        <v>6.4940538058166908e-08</v>
       </c>
       <c r="C449">
-        <v>0.99999973403803388</v>
+        <v>0.99999993505946194</v>
       </c>
       <c r="D449">
         <v>2</v>
@@ -7867,10 +7780,10 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>2.3345767298010855e-05</v>
+        <v>3.1709508980681811e-05</v>
       </c>
       <c r="C450">
-        <v>0.99997665423270199</v>
+        <v>0.99996829049101932</v>
       </c>
       <c r="D450">
         <v>2</v>
@@ -7881,13 +7794,13 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>9.187456899240054e-05</v>
+        <v>0.99057898604800299</v>
       </c>
       <c r="C451">
-        <v>0.9999081254310076</v>
+        <v>0.0094210139519970513</v>
       </c>
       <c r="D451">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -7895,13 +7808,13 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>0.56108447256287985</v>
+        <v>2.7901509735972496e-07</v>
       </c>
       <c r="C452">
-        <v>0.4389155274371202</v>
+        <v>0.99999972098490264</v>
       </c>
       <c r="D452">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453">
@@ -7909,10 +7822,10 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>3.4230874264018496e-06</v>
+        <v>4.4435377510865237e-07</v>
       </c>
       <c r="C453">
-        <v>0.9999965769125736</v>
+        <v>0.99999955564622489</v>
       </c>
       <c r="D453">
         <v>2</v>
@@ -7923,10 +7836,10 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>1.9333331791049349e-07</v>
+        <v>1.0000089689654601e-07</v>
       </c>
       <c r="C454">
-        <v>0.99999980666668209</v>
+        <v>0.9999998999991031</v>
       </c>
       <c r="D454">
         <v>2</v>
@@ -7937,10 +7850,10 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>0.00025492687655992441</v>
+        <v>8.5118976245190947e-07</v>
       </c>
       <c r="C455">
-        <v>0.99974507312344008</v>
+        <v>0.99999914881023755</v>
       </c>
       <c r="D455">
         <v>2</v>
@@ -7951,10 +7864,10 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>1.1279450048751194e-05</v>
+        <v>4.6565630090755761e-06</v>
       </c>
       <c r="C456">
-        <v>0.99998872054995125</v>
+        <v>0.99999534343699092</v>
       </c>
       <c r="D456">
         <v>2</v>
@@ -7965,13 +7878,13 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>0.19100477738567889</v>
+        <v>0.99542932225960878</v>
       </c>
       <c r="C457">
-        <v>0.80899522261432111</v>
+        <v>0.0045706777403912678</v>
       </c>
       <c r="D457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -7979,10 +7892,10 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>0.00050391867207455476</v>
+        <v>8.4153233170791708e-07</v>
       </c>
       <c r="C458">
-        <v>0.99949608132792545</v>
+        <v>0.99999915846766829</v>
       </c>
       <c r="D458">
         <v>2</v>
@@ -7993,10 +7906,10 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>2.2387393985079385e-05</v>
+        <v>2.743982915476284e-05</v>
       </c>
       <c r="C459">
-        <v>0.99997761260601492</v>
+        <v>0.99997256017084524</v>
       </c>
       <c r="D459">
         <v>2</v>
@@ -8007,10 +7920,10 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>0.40962240255309224</v>
+        <v>8.7087142242037174e-07</v>
       </c>
       <c r="C460">
-        <v>0.59037759744690776</v>
+        <v>0.99999912912857758</v>
       </c>
       <c r="D460">
         <v>2</v>
@@ -8021,13 +7934,13 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>0.22051775342079105</v>
+        <v>0.9691265416491277</v>
       </c>
       <c r="C461">
-        <v>0.77948224657920895</v>
+        <v>0.030873458350872265</v>
       </c>
       <c r="D461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -8035,10 +7948,10 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>0.04871403926392337</v>
+        <v>6.0260001203404912e-06</v>
       </c>
       <c r="C462">
-        <v>0.95128596073607663</v>
+        <v>0.99999397399987966</v>
       </c>
       <c r="D462">
         <v>2</v>
@@ -8049,13 +7962,13 @@
         <v>462</v>
       </c>
       <c r="B463">
-        <v>2.9775440879564741e-06</v>
+        <v>0.91210820718452279</v>
       </c>
       <c r="C463">
-        <v>0.99999702245591204</v>
+        <v>0.087891792815477196</v>
       </c>
       <c r="D463">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -8063,10 +7976,10 @@
         <v>463</v>
       </c>
       <c r="B464">
-        <v>7.6159749488269313e-05</v>
+        <v>2.8305473187550945e-08</v>
       </c>
       <c r="C464">
-        <v>0.99992384025051173</v>
+        <v>0.99999997169452681</v>
       </c>
       <c r="D464">
         <v>2</v>
@@ -8077,10 +7990,10 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>3.1629004413336048e-05</v>
+        <v>1.1078997508295885e-07</v>
       </c>
       <c r="C465">
-        <v>0.99996837099558666</v>
+        <v>0.99999988921002492</v>
       </c>
       <c r="D465">
         <v>2</v>
@@ -8091,10 +8004,10 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>0.00028232979134157343</v>
+        <v>3.2663694342627281e-06</v>
       </c>
       <c r="C466">
-        <v>0.99971767020865843</v>
+        <v>0.99999673363056574</v>
       </c>
       <c r="D466">
         <v>2</v>
@@ -8105,10 +8018,10 @@
         <v>466</v>
       </c>
       <c r="B467">
-        <v>0.0001574189365795009</v>
+        <v>5.9500869830086955e-06</v>
       </c>
       <c r="C467">
-        <v>0.9998425810634205</v>
+        <v>0.99999404991301699</v>
       </c>
       <c r="D467">
         <v>2</v>
@@ -8119,10 +8032,10 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>0.00037565319626631233</v>
+        <v>7.8791593015381522e-05</v>
       </c>
       <c r="C468">
-        <v>0.99962434680373369</v>
+        <v>0.99992120840698462</v>
       </c>
       <c r="D468">
         <v>2</v>
@@ -8133,10 +8046,10 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>4.1266746642065755e-07</v>
+        <v>1.1597638031601853e-05</v>
       </c>
       <c r="C469">
-        <v>0.99999958733253358</v>
+        <v>0.9999884023619684</v>
       </c>
       <c r="D469">
         <v>2</v>
@@ -8147,418 +8060,12 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>0.074107513404404579</v>
+        <v>5.5374727025991888e-10</v>
       </c>
       <c r="C470">
-        <v>0.92589248659559542</v>
+        <v>0.99999999944625273</v>
       </c>
       <c r="D470">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B471">
-        <v>4.1266746642065755e-07</v>
-      </c>
-      <c r="C471">
-        <v>0.99999958733253358</v>
-      </c>
-      <c r="D471">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B472">
-        <v>0.00017756791626577506</v>
-      </c>
-      <c r="C472">
-        <v>0.99982243208373422</v>
-      </c>
-      <c r="D472">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B473">
-        <v>1.4864870798048102e-05</v>
-      </c>
-      <c r="C473">
-        <v>0.99998513512920195</v>
-      </c>
-      <c r="D473">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B474">
-        <v>0.095758734668539236</v>
-      </c>
-      <c r="C474">
-        <v>0.90424126533146076</v>
-      </c>
-      <c r="D474">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B475">
-        <v>3.3798355168923599e-05</v>
-      </c>
-      <c r="C475">
-        <v>0.99996620164483108</v>
-      </c>
-      <c r="D475">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B476">
-        <v>2.1235409586317644e-07</v>
-      </c>
-      <c r="C476">
-        <v>0.99999978764590414</v>
-      </c>
-      <c r="D476">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B477">
-        <v>4.3622138332644056e-06</v>
-      </c>
-      <c r="C477">
-        <v>0.99999563778616674</v>
-      </c>
-      <c r="D477">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B478">
-        <v>0.00051124102134447735</v>
-      </c>
-      <c r="C478">
-        <v>0.99948875897865563</v>
-      </c>
-      <c r="D478">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B479">
-        <v>0.14193232242986442</v>
-      </c>
-      <c r="C479">
-        <v>0.85806767757013558</v>
-      </c>
-      <c r="D479">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B480">
-        <v>1.266805039301655e-05</v>
-      </c>
-      <c r="C480">
-        <v>0.99998733194960698</v>
-      </c>
-      <c r="D480">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B481">
-        <v>4.6663828174753341e-05</v>
-      </c>
-      <c r="C481">
-        <v>0.99995333617182525</v>
-      </c>
-      <c r="D481">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B482">
-        <v>5.8370740256830089e-06</v>
-      </c>
-      <c r="C482">
-        <v>0.99999416292597432</v>
-      </c>
-      <c r="D482">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B483">
-        <v>2.9991079248725683e-05</v>
-      </c>
-      <c r="C483">
-        <v>0.99997000892075127</v>
-      </c>
-      <c r="D483">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B484">
-        <v>0.00017997711649675452</v>
-      </c>
-      <c r="C484">
-        <v>0.99982002288350325</v>
-      </c>
-      <c r="D484">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B485">
-        <v>0.34596674971085639</v>
-      </c>
-      <c r="C485">
-        <v>0.65403325028914361</v>
-      </c>
-      <c r="D485">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B486">
-        <v>6.0183699286731063e-05</v>
-      </c>
-      <c r="C486">
-        <v>0.99993981630071327</v>
-      </c>
-      <c r="D486">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B487">
-        <v>0.00043989878685435357</v>
-      </c>
-      <c r="C487">
-        <v>0.99956010121314565</v>
-      </c>
-      <c r="D487">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B488">
-        <v>2.4952345342388327e-05</v>
-      </c>
-      <c r="C488">
-        <v>0.99997504765465761</v>
-      </c>
-      <c r="D488">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B489">
-        <v>0.47042264186969374</v>
-      </c>
-      <c r="C489">
-        <v>0.52957735813030626</v>
-      </c>
-      <c r="D489">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B490">
-        <v>0.00021886073599663991</v>
-      </c>
-      <c r="C490">
-        <v>0.99978113926400336</v>
-      </c>
-      <c r="D490">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B491">
-        <v>0.65003848178103119</v>
-      </c>
-      <c r="C491">
-        <v>0.34996151821896881</v>
-      </c>
-      <c r="D491">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B492">
-        <v>4.3005152796649071e-06</v>
-      </c>
-      <c r="C492">
-        <v>0.99999569948472034</v>
-      </c>
-      <c r="D492">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B493">
-        <v>5.4584723354622602e-06</v>
-      </c>
-      <c r="C493">
-        <v>0.99999454152766454</v>
-      </c>
-      <c r="D493">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B494">
-        <v>9.8164223085395186e-05</v>
-      </c>
-      <c r="C494">
-        <v>0.9999018357769146</v>
-      </c>
-      <c r="D494">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B495">
-        <v>0.00015212696365252132</v>
-      </c>
-      <c r="C495">
-        <v>0.99984787303634748</v>
-      </c>
-      <c r="D495">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B496">
-        <v>0.0020832332819860078</v>
-      </c>
-      <c r="C496">
-        <v>0.99791676671801399</v>
-      </c>
-      <c r="D496">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B497">
-        <v>0.00081280990709253764</v>
-      </c>
-      <c r="C497">
-        <v>0.99918719009290746</v>
-      </c>
-      <c r="D497">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B498">
-        <v>0.00017881730787427941</v>
-      </c>
-      <c r="C498">
-        <v>0.99982118269212572</v>
-      </c>
-      <c r="D498">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B499">
-        <v>2.9075466179140363e-07</v>
-      </c>
-      <c r="C499">
-        <v>0.99999970924533821</v>
-      </c>
-      <c r="D499">
         <v>2</v>
       </c>
     </row>
